--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1298 +397,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>10.76755935471046</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.399659757831053</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>5.07702115419408</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>1.144084471630329</v>
+      </c>
+      <c r="F2">
         <v>4.62350852179618</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>4.557983270346906</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.3075268126182382</v>
       </c>
-      <c r="H2" t="n">
-        <v>26.73325887149691</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>27.87734334312724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>11.19608016839286</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.227393941482616</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>4.653936058011237</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>1.144084471630329</v>
+      </c>
+      <c r="F3">
         <v>3.624360493780904</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>3.929295922712849</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.4228493673500776</v>
       </c>
-      <c r="H3" t="n">
-        <v>25.05391595173055</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>26.19800042336088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>11.80380059506972</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.313526849656835</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4.583421875314098</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>1.072579192153434</v>
+      </c>
+      <c r="F4">
         <v>4.09454780108221</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>3.536366330441566</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.3844085157727978</v>
       </c>
-      <c r="H4" t="n">
-        <v>25.71607196733722</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>26.78865115949066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>11.74147029489774</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.9689952169599602</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4.230850961828398</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>1.072579192153434</v>
+      </c>
+      <c r="F5">
         <v>4.133730076690651</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>2.671921227444738</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.3075268126182382</v>
       </c>
-      <c r="H5" t="n">
-        <v>24.05449459043972</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>25.12707378259315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>12.13882595849414</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.162794260351952</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5.006506971496937</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>1.358600310061016</v>
+      </c>
+      <c r="F6">
         <v>3.545995942564019</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>2.829093064353252</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.2306451094636787</v>
       </c>
-      <c r="H6" t="n">
-        <v>24.91386130672398</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>26.27246161678499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>12.38814715918208</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.012061671047069</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>5.218049519588357</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="F7">
         <v>3.114990910871155</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>2.278991635173453</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.4997310705046371</v>
       </c>
-      <c r="H7" t="n">
-        <v>24.51197196636675</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>25.79906699695087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>13.5724228624498</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.119727806264843</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>4.935992788799798</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>2.43117950221445</v>
+      </c>
+      <c r="F8">
         <v>3.38926684013025</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>1.493132450630883</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.4228493673500776</v>
       </c>
-      <c r="H8" t="n">
-        <v>24.93339211562565</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>27.36457161784011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>14.97485461631947</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.9474619899164056</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4.724450240708378</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>4.433327327567525</v>
+      </c>
+      <c r="F9">
         <v>3.173764324283818</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>1.493132450630883</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.2690859610409584</v>
       </c>
-      <c r="H9" t="n">
-        <v>25.58274958289991</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>30.01607691046743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>14.39050805220711</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.076661352177733</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>5.852677163862617</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>5.362895960767168</v>
+      </c>
+      <c r="F10">
         <v>1.704428988967235</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>1.100202858359598</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.1153225547318393</v>
       </c>
-      <c r="H10" t="n">
-        <v>24.23980097030613</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>29.6026969310733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>10.40916012872154</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.8828623087857418</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>4.160336779131258</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>4.290316768613736</v>
+      </c>
+      <c r="F11">
         <v>0.8816012011899493</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0.9430310214510838</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.1153225547318393</v>
       </c>
-      <c r="H11" t="n">
-        <v>17.39231399401142</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>21.68263076262515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>8.702868161513454</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.9689952169599602</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>3.666737500251279</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>3.360748135414092</v>
+      </c>
+      <c r="F12">
         <v>0.7836455121688439</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>1.178788776813855</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.1537634063091191</v>
       </c>
-      <c r="H12" t="n">
-        <v>15.45479857401651</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>18.8155467094306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>7.183567094821308</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.6459968113066401</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2.961595673279878</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>2.502684781691345</v>
+      </c>
+      <c r="F13">
         <v>0.391822756084422</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.5501014291797992</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H13" t="n">
-        <v>11.8099654678266</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>14.31265024951795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>5.500648990177704</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.5813971301759761</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1.55131201933708</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>1.144084471630329</v>
+      </c>
+      <c r="F14">
         <v>0.4897784451055275</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>0.3929295922712851</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.1153225547318393</v>
       </c>
-      <c r="H14" t="n">
-        <v>8.631388731799412</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>9.77547320342974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3.233384321421738</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.258398724522656</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.8461701923656797</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>0.7150527947689559</v>
+      </c>
+      <c r="F15">
         <v>0.391822756084422</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>0.5501014291797992</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H15" t="n">
-        <v>5.318318275151574</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>6.03337106992053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2.602290032180386</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.4952642220017574</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.9871985577599595</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="F16">
         <v>0.2155025158464321</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>0.6286873476340559</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H16" t="n">
-        <v>4.96738352699987</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>5.181899365430557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1.651752954557612</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.6675300383501948</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.4935992788799797</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.07150527947689558</v>
+      </c>
+      <c r="F17">
         <v>0.4505961694970853</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>0.6286873476340559</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>3.892165788918927</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>3.963671068395823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1.129736690617234</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.5813971301759761</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.4935992788799797</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.07150527947689558</v>
+      </c>
+      <c r="F18">
         <v>0.2350936536506532</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>0.8644451029968269</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>3.304271856320669</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>3.375777135797565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1.168693128224724</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.4952642220017574</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.7051418269713997</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.3575263973844779</v>
+      </c>
+      <c r="F19">
         <v>0.4114138938886431</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>0.7072732660883131</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>3.487786337174838</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>3.845312734559315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2.002360893025028</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.3014651786097653</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1.057712740457099</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="F20">
         <v>0.8228277877772862</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>0.8644451029968269</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>5.048811702866006</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>5.263327541296692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>4.643607362812907</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.258398724522656</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2.467996394399899</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>2.717200620122032</v>
+      </c>
+      <c r="F21">
         <v>1.410561921903919</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>2.278991635173453</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H21" t="n">
-        <v>11.09799689039011</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>13.81519751051215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>8.266556060309552</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.8613290817421868</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>4.442393509919818</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>7.007517388735765</v>
+      </c>
+      <c r="F22">
         <v>2.350936536506532</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>3.536366330441566</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.1922042578863989</v>
       </c>
-      <c r="H22" t="n">
-        <v>19.64978577680605</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>26.65730316554182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>11.4454013690808</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.4306645408710934</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>2.961595673279878</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>5.863432917105436</v>
+      </c>
+      <c r="F23">
         <v>2.781941568199396</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>3.222022656624538</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.3844085157727978</v>
       </c>
-      <c r="H23" t="n">
-        <v>21.22603432382851</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>27.08946724093394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>13.39322324945534</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.516797449045312</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>3.666737500251279</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>2.574190061168242</v>
+      </c>
+      <c r="F24">
         <v>2.958261808437386</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>4.479397351892651</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.3075268126182382</v>
       </c>
-      <c r="H24" t="n">
-        <v>25.32194417170021</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>27.89613423286845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>10.81430707983944</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1.055128125134179</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>4.794964423405517</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>1.930642545876181</v>
+      </c>
+      <c r="F25">
         <v>3.781089596214672</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>5.26525653643522</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.1537634063091191</v>
       </c>
-      <c r="H25" t="n">
-        <v>25.86450916733815</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>27.79515171321433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>11.07141956804888</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.162794260351952</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>4.583421875314098</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>1.144084471630329</v>
+      </c>
+      <c r="F26">
         <v>4.936966726663718</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>5.422428373343735</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.3844085157727978</v>
       </c>
-      <c r="H26" t="n">
-        <v>27.56143931949519</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>28.70552379112551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>10.87663738001143</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.399659757831053</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>4.089822596434118</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>0.9295686331996423</v>
+      </c>
+      <c r="F27">
         <v>4.09454780108221</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>5.029498781072447</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.345967664195518</v>
       </c>
-      <c r="H27" t="n">
-        <v>25.83613398062678</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>26.76570261382642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>11.10258471813488</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.076661352177733</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>3.596223317554138</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>1.358600310061016</v>
+      </c>
+      <c r="F28">
         <v>3.467631391347135</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>3.693538167350079</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.4997310705046371</v>
       </c>
-      <c r="H28" t="n">
-        <v>23.4363700170686</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>24.79497032712962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>11.74926158241924</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.9689952169599602</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>5.218049519588357</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>1.787631986922389</v>
+      </c>
+      <c r="F29">
         <v>3.957409836452662</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>3.614952248895823</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.4997310705046371</v>
       </c>
-      <c r="H29" t="n">
-        <v>26.00839947482067</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>27.79603146174306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>10.31566467846357</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.9259287628728509</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>5.288563702285499</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>1.144084471630329</v>
+      </c>
+      <c r="F30">
         <v>3.604769355976682</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>2.121819798264938</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.3075268126182382</v>
       </c>
-      <c r="H30" t="n">
-        <v>22.56427311048178</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>23.70835758211211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>12.13103467097264</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.7105964924373042</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>3.807765865645559</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>1.072579192153434</v>
+      </c>
+      <c r="F31">
         <v>3.526404804759797</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>3.300608575078795</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.5766127736591966</v>
       </c>
-      <c r="H31" t="n">
-        <v>24.05302318255329</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>25.12560237470673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>13.86070050074524</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.9474619899164056</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>4.583421875314098</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>2.359674222737553</v>
+      </c>
+      <c r="F32">
         <v>3.408857977934471</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>2.671921227444738</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.345967664195518</v>
       </c>
-      <c r="H32" t="n">
-        <v>25.81833123555047</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>28.17800545828802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>15.20080195444291</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.7105964924373042</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>3.45519495215986</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>4.004295650706152</v>
+      </c>
+      <c r="F33">
         <v>2.781941568199396</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>1.335960613722369</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.2690859610409584</v>
       </c>
-      <c r="H33" t="n">
-        <v>23.7535815420028</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>27.75787719270895</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>15.86306139377026</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.4952642220017574</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>3.948794231039838</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>5.148380122336484</v>
+      </c>
+      <c r="F34">
         <v>1.880749229205225</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>0.7072732660883131</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.1922042578863989</v>
       </c>
-      <c r="H34" t="n">
-        <v>23.08734659999179</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>28.23572672232828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>11.12595858069937</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.452197767914648</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>3.243652404068439</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>3.861285091752363</v>
+      </c>
+      <c r="F35">
         <v>1.097103717036382</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>1.178788776813855</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.1922042578863989</v>
       </c>
-      <c r="H35" t="n">
-        <v>17.28990550441909</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>21.15119059617146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>9.848187427173677</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.3014651786097653</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2.18593966361134</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>4.147306209659945</v>
+      </c>
+      <c r="F36">
         <v>0.8620100633857283</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>1.100202858359598</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.2690859610409584</v>
       </c>
-      <c r="H36" t="n">
-        <v>14.56689115218107</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>18.71419736184101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>7.876991684234643</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.3014651786097653</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2.397482211702759</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>2.288168943260659</v>
+      </c>
+      <c r="F37">
         <v>0.7640543743646229</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>0.7072732660883131</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.1537634063091191</v>
       </c>
-      <c r="H37" t="n">
-        <v>12.20103012130922</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>14.48919906456988</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>6.061621691725571</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.516797449045312</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>1.410283653942799</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>1.144084471630329</v>
+      </c>
+      <c r="F38">
         <v>0.5681429963224118</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>0.7072732660883131</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H38" t="n">
-        <v>9.341000760278966</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>10.4850852319093</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>3.786565735448108</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.4091313138275387</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.9871985577599595</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>0.500536956338269</v>
+      </c>
+      <c r="F39">
         <v>0.2938670670633165</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>0.4715155107255419</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H39" t="n">
-        <v>5.986719036401744</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>6.487255992740013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2.874985095432821</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.8828623087857418</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.7756560096685398</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.2860211179075823</v>
+      </c>
+      <c r="F40">
         <v>0.2742759292590954</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>0.8644451029968269</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H40" t="n">
-        <v>5.749106149297585</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>6.035127267205167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>2.056899905675516</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.6675300383501948</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.4935992788799797</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.07150527947689558</v>
+      </c>
+      <c r="F41">
         <v>0.4897784451055275</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>0.8644451029968269</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H41" t="n">
-        <v>4.610693622585323</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>4.682198902062219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1.519301066692141</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.3875980867839841</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.7756560096685398</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.1430105589537912</v>
+      </c>
+      <c r="F42">
         <v>0.2546847914548743</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>0.7858591845425702</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>3.72309913914211</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>3.866109698095901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1.192066990789219</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.3445316326968748</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.7756560096685398</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.1430105589537912</v>
+      </c>
+      <c r="F43">
         <v>0.3134582048675376</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>1.100202858359598</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H43" t="n">
-        <v>3.764356547959049</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>3.90736710691284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1.963404455417537</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.2799319515662109</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.8461701923656797</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="F44">
         <v>0.8620100633857283</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>1.100202858359598</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>5.051719521094755</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>5.266235359525441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>4.666981225377401</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.2368654974791014</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>1.339769471245659</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>2.288168943260659</v>
+      </c>
+      <c r="F45">
         <v>1.880749229205225</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>2.35757755362771</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H45" t="n">
-        <v>10.55882468008966</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>12.84699362335031</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>8.531459836040488</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.2368654974791014</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>2.891081490582738</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>7.007517388735765</v>
+      </c>
+      <c r="F46">
         <v>2.390118812114974</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>4.636569188801166</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.1537634063091191</v>
       </c>
-      <c r="H46" t="n">
-        <v>18.83985823132759</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>25.84737562006335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>11.64797484463975</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.3660648597404293</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>3.666737500251279</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>5.577411799197856</v>
+      </c>
+      <c r="F47">
         <v>2.488074501136079</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>3.772124085804335</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.2690859610409584</v>
       </c>
-      <c r="H47" t="n">
-        <v>22.21006175261283</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>27.78747355181069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>12.85562441047196</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.5383306760888666</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>4.230850961828398</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>2.860211179075824</v>
+      </c>
+      <c r="F48">
         <v>3.075808635262713</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>3.929295922712849</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.345967664195518</v>
       </c>
-      <c r="H48" t="n">
-        <v>24.9758782705603</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>27.83608944963613</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>10.81430707983944</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1.055128125134179</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>4.794964423405517</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>1.930642545876181</v>
+      </c>
+      <c r="F49">
         <v>3.781089596214672</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>5.26525653643522</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.1537634063091191</v>
       </c>
-      <c r="H49" t="n">
-        <v>25.86450916733815</v>
+      <c r="I49">
+        <v>27.79515171321433</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>10.76755935471046</v>
+        <v>15.60827951678464</v>
       </c>
       <c r="C2">
-        <v>1.399659757831053</v>
+        <v>2.028898101134232</v>
       </c>
       <c r="D2">
-        <v>5.07702115419408</v>
+        <v>7.35947327307959</v>
       </c>
       <c r="E2">
-        <v>1.144084471630329</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="F2">
-        <v>4.62350852179618</v>
+        <v>6.702077135508029</v>
       </c>
       <c r="G2">
-        <v>4.557983270346906</v>
+        <v>6.607094010146345</v>
       </c>
       <c r="H2">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I2">
-        <v>27.87734334312724</v>
+        <v>40.41002726347229</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>11.19608016839286</v>
+        <v>16.22944838322687</v>
       </c>
       <c r="C3">
-        <v>1.227393941482616</v>
+        <v>1.779187565610019</v>
       </c>
       <c r="D3">
-        <v>4.653936058011237</v>
+        <v>6.746183833656289</v>
       </c>
       <c r="E3">
-        <v>1.144084471630329</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="F3">
-        <v>3.624360493780904</v>
+        <v>5.253746907071971</v>
       </c>
       <c r="G3">
-        <v>3.929295922712849</v>
+        <v>5.69577069840202</v>
       </c>
       <c r="H3">
-        <v>0.4228493673500776</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="I3">
-        <v>26.19800042336088</v>
+        <v>37.9757101789066</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>11.80380059506972</v>
+        <v>17.11037877563584</v>
       </c>
       <c r="C4">
-        <v>1.313526849656835</v>
+        <v>1.904042833372125</v>
       </c>
       <c r="D4">
-        <v>4.583421875314098</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="E4">
-        <v>1.072579192153434</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="F4">
-        <v>4.09454780108221</v>
+        <v>5.935314073394821</v>
       </c>
       <c r="G4">
-        <v>3.536366330441566</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="H4">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I4">
-        <v>26.78865115949066</v>
+        <v>38.83189694162689</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>11.74147029489774</v>
+        <v>17.02002694051697</v>
       </c>
       <c r="C5">
-        <v>0.9689952169599602</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="D5">
-        <v>4.230850961828398</v>
+        <v>6.132894394232991</v>
       </c>
       <c r="E5">
-        <v>1.072579192153434</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="F5">
-        <v>4.133730076690651</v>
+        <v>5.99211133725506</v>
       </c>
       <c r="G5">
-        <v>2.671921227444738</v>
+        <v>3.873124074913375</v>
       </c>
       <c r="H5">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I5">
-        <v>25.12707378259315</v>
+        <v>36.42333217007199</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>12.13882595849414</v>
+        <v>17.59601988939978</v>
       </c>
       <c r="C6">
-        <v>1.162794260351952</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="D6">
-        <v>5.006506971496937</v>
+        <v>7.257258366509039</v>
       </c>
       <c r="E6">
-        <v>1.358600310061016</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="F6">
-        <v>3.545995942564019</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="G6">
-        <v>2.829093064353252</v>
+        <v>4.100954902849455</v>
       </c>
       <c r="H6">
-        <v>0.2306451094636787</v>
+        <v>0.3343351282399586</v>
       </c>
       <c r="I6">
-        <v>26.27246161678499</v>
+        <v>38.08364653493965</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>12.38814715918208</v>
+        <v>17.95742722987526</v>
       </c>
       <c r="C7">
-        <v>1.012061671047069</v>
+        <v>1.467049396204752</v>
       </c>
       <c r="D7">
-        <v>5.218049519588357</v>
+        <v>7.563903086220692</v>
       </c>
       <c r="E7">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F7">
-        <v>3.114990910871155</v>
+        <v>4.515382476888883</v>
       </c>
       <c r="G7">
-        <v>2.278991635173453</v>
+        <v>3.303547005073173</v>
       </c>
       <c r="H7">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I7">
-        <v>25.79906699695087</v>
+        <v>37.39743015992794</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>13.5724228624498</v>
+        <v>19.67411209713375</v>
       </c>
       <c r="C8">
-        <v>1.119727806264843</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="D8">
-        <v>4.935992788799798</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="E8">
-        <v>2.43117950221445</v>
+        <v>3.524153243644772</v>
       </c>
       <c r="F8">
-        <v>3.38926684013025</v>
+        <v>4.912963323910546</v>
       </c>
       <c r="G8">
-        <v>1.493132450630883</v>
+        <v>2.164392865392768</v>
       </c>
       <c r="H8">
-        <v>0.4228493673500776</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="I8">
-        <v>27.36457161784011</v>
+        <v>39.6667312060343</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>14.97485461631947</v>
+        <v>21.70702838730831</v>
       </c>
       <c r="C9">
-        <v>0.9474619899164056</v>
+        <v>1.373407945383172</v>
       </c>
       <c r="D9">
-        <v>4.724450240708378</v>
+        <v>6.84839874022684</v>
       </c>
       <c r="E9">
-        <v>4.433327327567525</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="F9">
-        <v>3.173764324283818</v>
+        <v>4.60057837267924</v>
       </c>
       <c r="G9">
-        <v>1.493132450630883</v>
+        <v>2.164392865392768</v>
       </c>
       <c r="H9">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I9">
-        <v>30.01607691046743</v>
+        <v>43.51026105195584</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>14.39050805220711</v>
+        <v>20.85997993306891</v>
       </c>
       <c r="C10">
-        <v>1.076661352177733</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="D10">
-        <v>5.852677163862617</v>
+        <v>8.483837245355639</v>
       </c>
       <c r="E10">
-        <v>5.362895960767168</v>
+        <v>7.77386744921641</v>
       </c>
       <c r="F10">
-        <v>1.704428988967235</v>
+        <v>2.470680977920332</v>
       </c>
       <c r="G10">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H10">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I10">
-        <v>29.6026969310733</v>
+        <v>42.91103981226016</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>10.40916012872154</v>
+        <v>15.08875646485115</v>
       </c>
       <c r="C11">
-        <v>0.8828623087857418</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="D11">
-        <v>4.160336779131258</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="E11">
-        <v>4.290316768613736</v>
+        <v>6.219093959373126</v>
       </c>
       <c r="F11">
-        <v>0.8816012011899493</v>
+        <v>1.277938436855344</v>
       </c>
       <c r="G11">
-        <v>0.9430310214510838</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="H11">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I11">
-        <v>21.68263076262515</v>
+        <v>31.43038737504012</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>8.702868161513454</v>
+        <v>12.6153749784721</v>
       </c>
       <c r="C12">
-        <v>0.9689952169599602</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="D12">
-        <v>3.666737500251279</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="E12">
-        <v>3.360748135414092</v>
+        <v>4.871623601508951</v>
       </c>
       <c r="F12">
-        <v>0.7836455121688439</v>
+        <v>1.135945277204751</v>
       </c>
       <c r="G12">
-        <v>1.178788776813855</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="H12">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I12">
-        <v>18.8155467094306</v>
+        <v>27.274362056192</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>7.183567094821308</v>
+        <v>10.41304899744967</v>
       </c>
       <c r="C13">
-        <v>0.6459968113066401</v>
+        <v>0.9364145082157992</v>
       </c>
       <c r="D13">
-        <v>2.961595673279878</v>
+        <v>4.293026075963094</v>
       </c>
       <c r="E13">
-        <v>2.502684781691345</v>
+        <v>3.627804809634324</v>
       </c>
       <c r="F13">
-        <v>0.391822756084422</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="G13">
-        <v>0.5501014291797992</v>
+        <v>0.7974078977762828</v>
       </c>
       <c r="H13">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I13">
-        <v>14.31265024951795</v>
+        <v>20.74711997038819</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>5.500648990177704</v>
+        <v>7.973549449240199</v>
       </c>
       <c r="C14">
-        <v>0.5813971301759761</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="D14">
-        <v>1.55131201933708</v>
+        <v>2.248727944552097</v>
       </c>
       <c r="E14">
-        <v>1.144084471630329</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="F14">
-        <v>0.4897784451055275</v>
+        <v>0.7099657982529692</v>
       </c>
       <c r="G14">
-        <v>0.3929295922712851</v>
+        <v>0.5695770698402021</v>
       </c>
       <c r="H14">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I14">
-        <v>9.77547320342974</v>
+        <v>14.1701859392325</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>3.233384321421738</v>
+        <v>4.687001446791336</v>
       </c>
       <c r="C15">
-        <v>0.258398724522656</v>
+        <v>0.3745658032863197</v>
       </c>
       <c r="D15">
-        <v>0.8461701923656797</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="E15">
-        <v>0.7150527947689559</v>
+        <v>1.036515659895521</v>
       </c>
       <c r="F15">
-        <v>0.391822756084422</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="G15">
-        <v>0.5501014291797992</v>
+        <v>0.7974078977762828</v>
       </c>
       <c r="H15">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I15">
-        <v>6.03337106992053</v>
+        <v>8.74576484657176</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>2.602290032180386</v>
+        <v>3.772189116212788</v>
       </c>
       <c r="C16">
-        <v>0.4952642220017574</v>
+        <v>0.7179177896321129</v>
       </c>
       <c r="D16">
-        <v>0.9871985577599595</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="E16">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F16">
-        <v>0.2155025158464321</v>
+        <v>0.3123849512313064</v>
       </c>
       <c r="G16">
-        <v>0.6286873476340559</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="H16">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I16">
-        <v>5.181899365430557</v>
+        <v>7.511501080150212</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>1.651752954557612</v>
+        <v>2.394323630650032</v>
       </c>
       <c r="C17">
-        <v>0.6675300383501948</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="D17">
-        <v>0.4935992788799797</v>
+        <v>0.7155043459938493</v>
       </c>
       <c r="E17">
-        <v>0.07150527947689558</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="F17">
-        <v>0.4505961694970853</v>
+        <v>0.6531685343927315</v>
       </c>
       <c r="G17">
-        <v>0.6286873476340559</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="I17">
-        <v>3.963671068395823</v>
+        <v>5.745599713926815</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>1.129736690617234</v>
+        <v>1.637627011529503</v>
       </c>
       <c r="C18">
-        <v>0.5813971301759761</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="D18">
-        <v>0.4935992788799797</v>
+        <v>0.7155043459938493</v>
       </c>
       <c r="E18">
-        <v>0.07150527947689558</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="F18">
-        <v>0.2350936536506532</v>
+        <v>0.3407835831614252</v>
       </c>
       <c r="G18">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="I18">
-        <v>3.375777135797565</v>
+        <v>4.893409117716994</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>1.168693128224724</v>
+        <v>1.694096908478797</v>
       </c>
       <c r="C19">
-        <v>0.4952642220017574</v>
+        <v>0.7179177896321129</v>
       </c>
       <c r="D19">
-        <v>0.7051418269713997</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="E19">
-        <v>0.3575263973844779</v>
+        <v>0.5182578299477607</v>
       </c>
       <c r="F19">
-        <v>0.4114138938886431</v>
+        <v>0.5963712705324939</v>
       </c>
       <c r="G19">
-        <v>0.7072732660883131</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="I19">
-        <v>3.845312734559315</v>
+        <v>5.574031590009026</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>2.002360893025028</v>
+        <v>2.90255270319367</v>
       </c>
       <c r="C20">
-        <v>0.3014651786097653</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="D20">
-        <v>1.057712740457099</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="E20">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F20">
-        <v>0.8228277877772862</v>
+        <v>1.192742541064988</v>
       </c>
       <c r="G20">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="I20">
-        <v>5.263327541296692</v>
+        <v>7.62953653160138</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>4.643607362812907</v>
+        <v>6.73121171635575</v>
       </c>
       <c r="C21">
-        <v>0.258398724522656</v>
+        <v>0.3745658032863197</v>
       </c>
       <c r="D21">
-        <v>2.467996394399899</v>
+        <v>3.577521729969245</v>
       </c>
       <c r="E21">
-        <v>2.717200620122032</v>
+        <v>3.938759507602981</v>
       </c>
       <c r="F21">
-        <v>1.410561921903919</v>
+        <v>2.044701498968551</v>
       </c>
       <c r="G21">
-        <v>2.278991635173453</v>
+        <v>3.303547005073173</v>
       </c>
       <c r="H21">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I21">
-        <v>13.81519751051215</v>
+        <v>20.02602978262935</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>8.266556060309552</v>
+        <v>11.98291213264002</v>
       </c>
       <c r="C22">
-        <v>0.8613290817421868</v>
+        <v>1.248552677621066</v>
       </c>
       <c r="D22">
-        <v>4.442393509919818</v>
+        <v>6.439539113944641</v>
       </c>
       <c r="E22">
-        <v>7.007517388735765</v>
+        <v>10.15785346697611</v>
       </c>
       <c r="F22">
-        <v>2.350936536506532</v>
+        <v>3.407835831614251</v>
       </c>
       <c r="G22">
-        <v>3.536366330441566</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="H22">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I22">
-        <v>26.65730316554182</v>
+        <v>38.64149945822453</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>11.4454013690808</v>
+        <v>16.59085572370235</v>
       </c>
       <c r="C23">
-        <v>0.4306645408710934</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="D23">
-        <v>2.961595673279878</v>
+        <v>4.293026075963094</v>
       </c>
       <c r="E23">
-        <v>5.863432917105436</v>
+        <v>8.499428411143276</v>
       </c>
       <c r="F23">
-        <v>2.781941568199396</v>
+        <v>4.032605734076864</v>
       </c>
       <c r="G23">
-        <v>3.222022656624538</v>
+        <v>4.670531972689656</v>
       </c>
       <c r="H23">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I23">
-        <v>27.08946724093394</v>
+        <v>39.26794947011904</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>13.39322324945534</v>
+        <v>19.41435057116702</v>
       </c>
       <c r="C24">
-        <v>0.516797449045312</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="D24">
-        <v>3.666737500251279</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="E24">
-        <v>2.574190061168242</v>
+        <v>3.731456375623877</v>
       </c>
       <c r="F24">
-        <v>2.958261808437386</v>
+        <v>4.288193421447933</v>
       </c>
       <c r="G24">
-        <v>4.479397351892651</v>
+        <v>6.493178596178304</v>
       </c>
       <c r="H24">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I24">
-        <v>27.89613423286845</v>
+        <v>40.43726588364498</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>10.81430707983944</v>
+        <v>15.6760433931238</v>
       </c>
       <c r="C25">
-        <v>1.055128125134179</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="D25">
-        <v>4.794964423405517</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="E25">
-        <v>1.930642545876181</v>
+        <v>2.798592281717908</v>
       </c>
       <c r="F25">
-        <v>3.781089596214672</v>
+        <v>5.480935962512922</v>
       </c>
       <c r="G25">
-        <v>5.26525653643522</v>
+        <v>7.632332735858708</v>
       </c>
       <c r="H25">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I25">
-        <v>27.79515171321433</v>
+        <v>40.29088513558985</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>11.07141956804888</v>
+        <v>16.04874471298914</v>
       </c>
       <c r="C26">
-        <v>1.162794260351952</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="D26">
-        <v>4.583421875314098</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="E26">
-        <v>1.144084471630329</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="F26">
-        <v>4.936966726663718</v>
+        <v>7.156455246389928</v>
       </c>
       <c r="G26">
-        <v>5.422428373343735</v>
+        <v>7.860163563794787</v>
       </c>
       <c r="H26">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I26">
-        <v>28.70552379112551</v>
+        <v>41.61052883461413</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>10.87663738001143</v>
+        <v>15.76639522824266</v>
       </c>
       <c r="C27">
-        <v>1.399659757831053</v>
+        <v>2.028898101134232</v>
       </c>
       <c r="D27">
-        <v>4.089822596434118</v>
+        <v>5.928464581091893</v>
       </c>
       <c r="E27">
-        <v>0.9295686331996423</v>
+        <v>1.347470357864177</v>
       </c>
       <c r="F27">
-        <v>4.09454780108221</v>
+        <v>5.935314073394821</v>
       </c>
       <c r="G27">
-        <v>5.029498781072447</v>
+        <v>7.290586493954586</v>
       </c>
       <c r="H27">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I27">
-        <v>26.76570261382642</v>
+        <v>38.79863152804231</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>11.10258471813488</v>
+        <v>16.09392063054857</v>
       </c>
       <c r="C28">
-        <v>1.076661352177733</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="D28">
-        <v>3.596223317554138</v>
+        <v>5.212960235098041</v>
       </c>
       <c r="E28">
-        <v>1.358600310061016</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="F28">
-        <v>3.467631391347135</v>
+        <v>5.026557851631022</v>
       </c>
       <c r="G28">
-        <v>3.693538167350079</v>
+        <v>5.354024456497898</v>
       </c>
       <c r="H28">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I28">
-        <v>24.79497032712962</v>
+        <v>35.94192655245661</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>11.74926158241924</v>
+        <v>17.03132091990683</v>
       </c>
       <c r="C29">
-        <v>0.9689952169599602</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="D29">
-        <v>5.218049519588357</v>
+        <v>7.563903086220692</v>
       </c>
       <c r="E29">
-        <v>1.787631986922389</v>
+        <v>2.591289149738803</v>
       </c>
       <c r="F29">
-        <v>3.957409836452662</v>
+        <v>5.736523649883988</v>
       </c>
       <c r="G29">
-        <v>3.614952248895823</v>
+        <v>5.240109042529858</v>
       </c>
       <c r="H29">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I29">
-        <v>27.79603146174306</v>
+        <v>40.29216038845711</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>10.31566467846357</v>
+        <v>14.95322871217285</v>
       </c>
       <c r="C30">
-        <v>0.9259287628728509</v>
+        <v>1.342194128442646</v>
       </c>
       <c r="D30">
-        <v>5.288563702285499</v>
+        <v>7.666117992791239</v>
       </c>
       <c r="E30">
-        <v>1.144084471630329</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="F30">
-        <v>3.604769355976682</v>
+        <v>5.225348275141852</v>
       </c>
       <c r="G30">
-        <v>2.121819798264938</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="H30">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I30">
-        <v>23.70835758211211</v>
+        <v>34.36681051250512</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>12.13103467097264</v>
+        <v>17.58472591000991</v>
       </c>
       <c r="C31">
-        <v>0.7105964924373042</v>
+        <v>1.030055959037379</v>
       </c>
       <c r="D31">
-        <v>3.807765865645559</v>
+        <v>5.519604954809692</v>
       </c>
       <c r="E31">
-        <v>1.072579192153434</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="F31">
-        <v>3.526404804759797</v>
+        <v>5.111753747421377</v>
       </c>
       <c r="G31">
-        <v>3.300608575078795</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="H31">
-        <v>0.5766127736591966</v>
+        <v>0.8358378205998964</v>
       </c>
       <c r="I31">
-        <v>25.12560237470673</v>
+        <v>36.42119926837923</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>13.86070050074524</v>
+        <v>20.09198933455852</v>
       </c>
       <c r="C32">
-        <v>0.9474619899164056</v>
+        <v>1.373407945383172</v>
       </c>
       <c r="D32">
-        <v>4.583421875314098</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="E32">
-        <v>2.359674222737553</v>
+        <v>3.42050167765522</v>
       </c>
       <c r="F32">
-        <v>3.408857977934471</v>
+        <v>4.941361955840663</v>
       </c>
       <c r="G32">
-        <v>2.671921227444738</v>
+        <v>3.873124074913375</v>
       </c>
       <c r="H32">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I32">
-        <v>28.17800545828802</v>
+        <v>40.84585660779663</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>15.20080195444291</v>
+        <v>22.0345537896142</v>
       </c>
       <c r="C33">
-        <v>0.7105964924373042</v>
+        <v>1.030055959037379</v>
       </c>
       <c r="D33">
-        <v>3.45519495215986</v>
+        <v>5.008530421956942</v>
       </c>
       <c r="E33">
-        <v>4.004295650706152</v>
+        <v>5.804487695414919</v>
       </c>
       <c r="F33">
-        <v>2.781941568199396</v>
+        <v>4.032605734076864</v>
       </c>
       <c r="G33">
-        <v>1.335960613722369</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="H33">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I33">
-        <v>27.75787719270895</v>
+        <v>40.23685328717028</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>15.86306139377026</v>
+        <v>22.99454203775219</v>
       </c>
       <c r="C34">
-        <v>0.4952642220017574</v>
+        <v>0.7179177896321129</v>
       </c>
       <c r="D34">
-        <v>3.948794231039838</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="E34">
-        <v>5.148380122336484</v>
+        <v>7.462912751247754</v>
       </c>
       <c r="F34">
-        <v>1.880749229205225</v>
+        <v>2.726268665291401</v>
       </c>
       <c r="G34">
-        <v>0.7072732660883131</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="H34">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I34">
-        <v>28.23572672232828</v>
+        <v>40.92952734445325</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>11.12595858069937</v>
+        <v>16.12780256871814</v>
       </c>
       <c r="C35">
-        <v>0.452197767914648</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="D35">
-        <v>3.243652404068439</v>
+        <v>4.701885702245293</v>
       </c>
       <c r="E35">
-        <v>3.861285091752363</v>
+        <v>5.597184563435817</v>
       </c>
       <c r="F35">
-        <v>1.097103717036382</v>
+        <v>1.590323388086651</v>
       </c>
       <c r="G35">
-        <v>1.178788776813855</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="H35">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I35">
-        <v>21.15119059617146</v>
+        <v>30.6600301946242</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>9.848187427173677</v>
+        <v>14.27558994878133</v>
       </c>
       <c r="C36">
-        <v>0.3014651786097653</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="D36">
-        <v>2.18593966361134</v>
+        <v>3.168662103687046</v>
       </c>
       <c r="E36">
-        <v>4.147306209659945</v>
+        <v>6.011790827394027</v>
       </c>
       <c r="F36">
-        <v>0.8620100633857283</v>
+        <v>1.249539804925226</v>
       </c>
       <c r="G36">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H36">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I36">
-        <v>18.71419736184101</v>
+        <v>27.12744956712086</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>7.876991684234643</v>
+        <v>11.41821316314709</v>
       </c>
       <c r="C37">
-        <v>0.3014651786097653</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="D37">
-        <v>2.397482211702759</v>
+        <v>3.475306823398695</v>
       </c>
       <c r="E37">
-        <v>2.288168943260659</v>
+        <v>3.316850111665667</v>
       </c>
       <c r="F37">
-        <v>0.7640543743646229</v>
+        <v>1.107546645274632</v>
       </c>
       <c r="G37">
-        <v>0.7072732660883131</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="H37">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I37">
-        <v>14.48919906456988</v>
+        <v>21.00303899185912</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>6.061621691725571</v>
+        <v>8.786715965310025</v>
       </c>
       <c r="C38">
-        <v>0.516797449045312</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="D38">
-        <v>1.410283653942799</v>
+        <v>2.044298131410997</v>
       </c>
       <c r="E38">
-        <v>1.144084471630329</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="F38">
-        <v>0.5681429963224118</v>
+        <v>0.8235603259734442</v>
       </c>
       <c r="G38">
-        <v>0.7072732660883131</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="H38">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I38">
-        <v>10.4850852319093</v>
+        <v>15.19881485355896</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>3.786565735448108</v>
+        <v>5.488873983471302</v>
       </c>
       <c r="C39">
-        <v>0.4091313138275387</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="D39">
-        <v>0.9871985577599595</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="E39">
-        <v>0.500536956338269</v>
+        <v>0.7255609619268649</v>
       </c>
       <c r="F39">
-        <v>0.2938670670633165</v>
+        <v>0.4259794789517813</v>
       </c>
       <c r="G39">
-        <v>0.4715155107255419</v>
+        <v>0.6834924838082423</v>
       </c>
       <c r="H39">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I39">
-        <v>6.487255992740013</v>
+        <v>9.403700643389222</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>2.874985095432821</v>
+        <v>4.167478394857841</v>
       </c>
       <c r="C40">
-        <v>0.8828623087857418</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="D40">
-        <v>0.7756560096685398</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="E40">
-        <v>0.2860211179075823</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="F40">
-        <v>0.2742759292590954</v>
+        <v>0.3975808470216627</v>
       </c>
       <c r="G40">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="H40">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I40">
-        <v>6.035127267205167</v>
+        <v>8.748310569070451</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>2.056899905675516</v>
+        <v>2.981610558922682</v>
       </c>
       <c r="C41">
-        <v>0.6675300383501948</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="D41">
-        <v>0.4935992788799797</v>
+        <v>0.7155043459938493</v>
       </c>
       <c r="E41">
-        <v>0.07150527947689558</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="F41">
-        <v>0.4897784451055275</v>
+        <v>0.7099657982529692</v>
       </c>
       <c r="G41">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="H41">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I41">
-        <v>4.682198902062219</v>
+        <v>6.78715266933715</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>1.519301066692141</v>
+        <v>2.202325981022435</v>
       </c>
       <c r="C42">
-        <v>0.3875980867839841</v>
+        <v>0.5618487049294794</v>
       </c>
       <c r="D42">
-        <v>0.7756560096685398</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="E42">
-        <v>0.1430105589537912</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="F42">
-        <v>0.2546847914548743</v>
+        <v>0.3691822150915439</v>
       </c>
       <c r="G42">
-        <v>0.7858591845425702</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="I42">
-        <v>3.866109698095901</v>
+        <v>5.604178144979016</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>1.192066990789219</v>
+        <v>1.727978846648373</v>
       </c>
       <c r="C43">
-        <v>0.3445316326968748</v>
+        <v>0.4994210710484263</v>
       </c>
       <c r="D43">
-        <v>0.7756560096685398</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="E43">
-        <v>0.1430105589537912</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="F43">
-        <v>0.3134582048675376</v>
+        <v>0.4543781108819002</v>
       </c>
       <c r="G43">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H43">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I43">
-        <v>3.90736710691284</v>
+        <v>5.663983449759743</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>1.963404455417537</v>
+        <v>2.84608280624438</v>
       </c>
       <c r="C44">
-        <v>0.2799319515662109</v>
+        <v>0.4057796202268465</v>
       </c>
       <c r="D44">
-        <v>0.8461701923656797</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="E44">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F44">
-        <v>0.8620100633857283</v>
+        <v>1.249539804925226</v>
       </c>
       <c r="G44">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="I44">
-        <v>5.266235359525441</v>
+        <v>7.633751603764273</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>4.666981225377401</v>
+        <v>6.765093654525325</v>
       </c>
       <c r="C45">
-        <v>0.2368654974791014</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="D45">
-        <v>1.339769471245659</v>
+        <v>1.942083224840448</v>
       </c>
       <c r="E45">
-        <v>2.288168943260659</v>
+        <v>3.316850111665667</v>
       </c>
       <c r="F45">
-        <v>1.880749229205225</v>
+        <v>2.726268665291401</v>
       </c>
       <c r="G45">
-        <v>2.35757755362771</v>
+        <v>3.417462419041212</v>
       </c>
       <c r="H45">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I45">
-        <v>12.84699362335031</v>
+        <v>18.6225551044565</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>8.531459836040488</v>
+        <v>12.36690743189521</v>
       </c>
       <c r="C46">
-        <v>0.2368654974791014</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="D46">
-        <v>2.891081490582738</v>
+        <v>4.190811169392544</v>
       </c>
       <c r="E46">
-        <v>7.007517388735765</v>
+        <v>10.15785346697611</v>
       </c>
       <c r="F46">
-        <v>2.390118812114974</v>
+        <v>3.464633095474489</v>
       </c>
       <c r="G46">
-        <v>4.636569188801166</v>
+        <v>6.721009424114385</v>
       </c>
       <c r="H46">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I46">
-        <v>25.84737562006335</v>
+        <v>37.46745665969183</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>11.64797484463975</v>
+        <v>16.88449918783868</v>
       </c>
       <c r="C47">
-        <v>0.3660648597404293</v>
+        <v>0.5306348879889531</v>
       </c>
       <c r="D47">
-        <v>3.666737500251279</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="E47">
-        <v>5.577411799197856</v>
+        <v>8.084822147185069</v>
       </c>
       <c r="F47">
-        <v>2.488074501136079</v>
+        <v>3.606626255125083</v>
       </c>
       <c r="G47">
-        <v>3.772124085804335</v>
+        <v>5.467939870465939</v>
       </c>
       <c r="H47">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I47">
-        <v>27.78747355181069</v>
+        <v>40.2797551398856</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>12.85562441047196</v>
+        <v>18.63506599326676</v>
       </c>
       <c r="C48">
-        <v>0.5383306760888666</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="D48">
-        <v>4.230850961828398</v>
+        <v>6.132894394232991</v>
       </c>
       <c r="E48">
-        <v>2.860211179075824</v>
+        <v>4.146062639582086</v>
       </c>
       <c r="F48">
-        <v>3.075808635262713</v>
+        <v>4.458585213028645</v>
       </c>
       <c r="G48">
-        <v>3.929295922712849</v>
+        <v>5.69577069840202</v>
       </c>
       <c r="H48">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I48">
-        <v>27.83608944963613</v>
+        <v>40.35022705438561</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>10.81430707983944</v>
+        <v>15.6760433931238</v>
       </c>
       <c r="C49">
-        <v>1.055128125134179</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="D49">
-        <v>4.794964423405517</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="E49">
-        <v>1.930642545876181</v>
+        <v>2.798592281717908</v>
       </c>
       <c r="F49">
-        <v>3.781089596214672</v>
+        <v>5.480935962512922</v>
       </c>
       <c r="G49">
-        <v>5.26525653643522</v>
+        <v>7.632332735858708</v>
       </c>
       <c r="H49">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I49">
-        <v>27.79515171321433</v>
+        <v>40.29088513558985</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>15.60827951678464</v>
+        <v>10.60838673816257</v>
       </c>
       <c r="C2">
-        <v>2.028898101134232</v>
+        <v>1.378969135323986</v>
       </c>
       <c r="D2">
-        <v>7.35947327307959</v>
+        <v>5.00196953713208</v>
       </c>
       <c r="E2">
-        <v>1.658425055832834</v>
+        <v>1.127171918571446</v>
       </c>
       <c r="F2">
-        <v>6.702077135508029</v>
+        <v>4.555161004517454</v>
       </c>
       <c r="G2">
-        <v>6.607094010146345</v>
+        <v>4.49060438722004</v>
       </c>
       <c r="H2">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="I2">
-        <v>40.41002726347229</v>
+        <v>27.46524348501145</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>16.22944838322687</v>
+        <v>11.03057289633836</v>
       </c>
       <c r="C3">
-        <v>1.779187565610019</v>
+        <v>1.209249857130265</v>
       </c>
       <c r="D3">
-        <v>6.746183833656289</v>
+        <v>4.585138742371072</v>
       </c>
       <c r="E3">
-        <v>1.658425055832834</v>
+        <v>1.127171918571446</v>
       </c>
       <c r="F3">
-        <v>5.253746907071971</v>
+        <v>3.570782990829359</v>
       </c>
       <c r="G3">
-        <v>5.69577069840202</v>
+        <v>3.871210678637965</v>
       </c>
       <c r="H3">
-        <v>0.6129477351065907</v>
+        <v>0.4165985506153373</v>
       </c>
       <c r="I3">
-        <v>37.9757101789066</v>
+        <v>25.81072563449381</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>17.11037877563584</v>
+        <v>11.6293096297513</v>
       </c>
       <c r="C4">
-        <v>1.904042833372125</v>
+        <v>1.294109496227125</v>
       </c>
       <c r="D4">
-        <v>6.643968927085742</v>
+        <v>4.515666943244237</v>
       </c>
       <c r="E4">
-        <v>1.554773489843281</v>
+        <v>1.056723673660731</v>
       </c>
       <c r="F4">
-        <v>5.935314073394821</v>
+        <v>4.034019703153168</v>
       </c>
       <c r="G4">
-        <v>5.126193628561817</v>
+        <v>3.484089610774168</v>
       </c>
       <c r="H4">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="I4">
-        <v>38.83189694162689</v>
+        <v>26.39264501191558</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>17.02002694051697</v>
+        <v>11.56790073401664</v>
       </c>
       <c r="C5">
-        <v>1.404621762323699</v>
+        <v>0.9546709398396825</v>
       </c>
       <c r="D5">
-        <v>6.132894394232991</v>
+        <v>4.168307947610066</v>
       </c>
       <c r="E5">
-        <v>1.554773489843281</v>
+        <v>1.056723673660731</v>
       </c>
       <c r="F5">
-        <v>5.99211133725506</v>
+        <v>4.072622762513486</v>
       </c>
       <c r="G5">
-        <v>3.873124074913375</v>
+        <v>2.632423261473816</v>
       </c>
       <c r="H5">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="I5">
-        <v>36.42333217007199</v>
+        <v>24.7556300831983</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>17.59601988939978</v>
+        <v>11.95938244432509</v>
       </c>
       <c r="C6">
-        <v>1.685546114788439</v>
+        <v>1.145605127807619</v>
       </c>
       <c r="D6">
-        <v>7.257258366509039</v>
+        <v>4.932497738005243</v>
       </c>
       <c r="E6">
-        <v>1.96937975380149</v>
+        <v>1.338516653303593</v>
       </c>
       <c r="F6">
-        <v>5.140152379351496</v>
+        <v>3.493576872108725</v>
       </c>
       <c r="G6">
-        <v>4.100954902849455</v>
+        <v>2.787271688619335</v>
       </c>
       <c r="H6">
-        <v>0.3343351282399586</v>
+        <v>0.2272355730629113</v>
       </c>
       <c r="I6">
-        <v>38.08364653493965</v>
+        <v>25.88408609723252</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>17.95742722987526</v>
+        <v>12.20501802726374</v>
       </c>
       <c r="C7">
-        <v>1.467049396204752</v>
+        <v>0.9971007593881129</v>
       </c>
       <c r="D7">
-        <v>7.563903086220692</v>
+        <v>5.140913135385746</v>
       </c>
       <c r="E7">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="F7">
-        <v>4.515382476888883</v>
+        <v>3.068943219145233</v>
       </c>
       <c r="G7">
-        <v>3.303547005073173</v>
+        <v>2.24530219361002</v>
       </c>
       <c r="H7">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="I7">
-        <v>37.39743015992794</v>
+        <v>25.41768948482204</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>19.67411209713375</v>
+        <v>13.37178704622228</v>
       </c>
       <c r="C8">
-        <v>1.623118480907386</v>
+        <v>1.103175308259189</v>
       </c>
       <c r="D8">
-        <v>7.155043459938489</v>
+        <v>4.86302593887841</v>
       </c>
       <c r="E8">
-        <v>3.524153243644772</v>
+        <v>2.395240326964322</v>
       </c>
       <c r="F8">
-        <v>4.912963323910546</v>
+        <v>3.339164634667456</v>
       </c>
       <c r="G8">
-        <v>2.164392865392768</v>
+        <v>1.471060057882427</v>
       </c>
       <c r="H8">
-        <v>0.6129477351065907</v>
+        <v>0.4165985506153373</v>
       </c>
       <c r="I8">
-        <v>39.6667312060343</v>
+        <v>26.96005186348942</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>21.70702838730831</v>
+        <v>14.75348720025214</v>
       </c>
       <c r="C9">
-        <v>1.373407945383172</v>
+        <v>0.9334560300654674</v>
       </c>
       <c r="D9">
-        <v>6.84839874022684</v>
+        <v>4.654610541497908</v>
       </c>
       <c r="E9">
-        <v>6.42639709135223</v>
+        <v>4.367791184464354</v>
       </c>
       <c r="F9">
-        <v>4.60057837267924</v>
+        <v>3.12684780818571</v>
       </c>
       <c r="G9">
-        <v>2.164392865392768</v>
+        <v>1.471060057882427</v>
       </c>
       <c r="H9">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="I9">
-        <v>43.51026105195584</v>
+        <v>29.5723609909214</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>20.85997993306891</v>
+        <v>14.1777788027397</v>
       </c>
       <c r="C10">
-        <v>1.560690847026332</v>
+        <v>1.060745488710758</v>
       </c>
       <c r="D10">
-        <v>8.483837245355639</v>
+        <v>5.766159327527258</v>
       </c>
       <c r="E10">
-        <v>7.77386744921641</v>
+        <v>5.283618368303653</v>
       </c>
       <c r="F10">
-        <v>2.470680977920332</v>
+        <v>1.679233082173807</v>
       </c>
       <c r="G10">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="H10">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="I10">
-        <v>42.91103981226016</v>
+        <v>29.16509184600526</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>15.08875646485115</v>
+        <v>10.25528558768827</v>
       </c>
       <c r="C11">
-        <v>1.279766494561593</v>
+        <v>0.869811300742822</v>
       </c>
       <c r="D11">
-        <v>6.030679487662441</v>
+        <v>4.09883614848323</v>
       </c>
       <c r="E11">
-        <v>6.219093959373126</v>
+        <v>4.226894694642924</v>
       </c>
       <c r="F11">
-        <v>1.277938436855344</v>
+        <v>0.8685688356071416</v>
       </c>
       <c r="G11">
-        <v>1.366984967616485</v>
+        <v>0.9290905628731118</v>
       </c>
       <c r="H11">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="I11">
-        <v>31.43038737504012</v>
+        <v>21.36210491656896</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>12.6153749784721</v>
+        <v>8.574217066951942</v>
       </c>
       <c r="C12">
-        <v>1.404621762323699</v>
+        <v>0.9546709398396825</v>
       </c>
       <c r="D12">
-        <v>5.315175141668592</v>
+        <v>3.61253355459539</v>
       </c>
       <c r="E12">
-        <v>4.871623601508951</v>
+        <v>3.311067510803624</v>
       </c>
       <c r="F12">
-        <v>1.135945277204751</v>
+        <v>0.7720611872063481</v>
       </c>
       <c r="G12">
-        <v>1.708731209520606</v>
+        <v>1.16136320359139</v>
       </c>
       <c r="H12">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="I12">
-        <v>27.274362056192</v>
+        <v>18.53740384503032</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>10.41304899744967</v>
+        <v>7.077375233419597</v>
       </c>
       <c r="C13">
-        <v>0.9364145082157992</v>
+        <v>0.6364472932264552</v>
       </c>
       <c r="D13">
-        <v>4.293026075963094</v>
+        <v>2.917815563327046</v>
       </c>
       <c r="E13">
-        <v>3.627804809634324</v>
+        <v>2.465688571875039</v>
       </c>
       <c r="F13">
-        <v>0.5679726386023753</v>
+        <v>0.386030593603174</v>
       </c>
       <c r="G13">
-        <v>0.7974078977762828</v>
+        <v>0.5419694950093152</v>
       </c>
       <c r="H13">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I13">
-        <v>20.74711997038819</v>
+        <v>14.1010719414816</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>7.973549449240199</v>
+        <v>5.419335048583776</v>
       </c>
       <c r="C14">
-        <v>0.8427730573942195</v>
+        <v>0.5728025639038096</v>
       </c>
       <c r="D14">
-        <v>2.248727944552097</v>
+        <v>1.528379580790358</v>
       </c>
       <c r="E14">
-        <v>1.658425055832834</v>
+        <v>1.127171918571446</v>
       </c>
       <c r="F14">
-        <v>0.7099657982529692</v>
+        <v>0.4825382420039675</v>
       </c>
       <c r="G14">
-        <v>0.5695770698402021</v>
+        <v>0.3871210678637965</v>
       </c>
       <c r="H14">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="I14">
-        <v>14.1701859392325</v>
+        <v>9.630966208248608</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>4.687001446791336</v>
+        <v>3.185586466235504</v>
       </c>
       <c r="C15">
-        <v>0.3745658032863197</v>
+        <v>0.254578917290582</v>
       </c>
       <c r="D15">
-        <v>1.226578878846598</v>
+        <v>0.833661589522013</v>
       </c>
       <c r="E15">
-        <v>1.036515659895521</v>
+        <v>0.704482449107154</v>
       </c>
       <c r="F15">
-        <v>0.5679726386023753</v>
+        <v>0.386030593603174</v>
       </c>
       <c r="G15">
-        <v>0.7974078977762828</v>
+        <v>0.5419694950093152</v>
       </c>
       <c r="H15">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I15">
-        <v>8.74576484657176</v>
+        <v>5.944182106278229</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>3.772189116212788</v>
+        <v>2.563821396922068</v>
       </c>
       <c r="C16">
-        <v>0.7179177896321129</v>
+        <v>0.4879429248069488</v>
       </c>
       <c r="D16">
-        <v>1.431008691987699</v>
+        <v>0.9726051877756821</v>
       </c>
       <c r="E16">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="F16">
-        <v>0.3123849512313064</v>
+        <v>0.2123168264817457</v>
       </c>
       <c r="G16">
-        <v>0.9113233117443232</v>
+        <v>0.6193937085820745</v>
       </c>
       <c r="H16">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I16">
-        <v>7.511501080150212</v>
+        <v>5.10529737481115</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>2.394323630650032</v>
+        <v>1.627335736968498</v>
       </c>
       <c r="C17">
-        <v>0.967628325156326</v>
+        <v>0.6576622030006701</v>
       </c>
       <c r="D17">
-        <v>0.7155043459938493</v>
+        <v>0.486302593887841</v>
       </c>
       <c r="E17">
-        <v>0.1036515659895521</v>
+        <v>0.07044824491071539</v>
       </c>
       <c r="F17">
-        <v>0.6531685343927315</v>
+        <v>0.4439351826436502</v>
       </c>
       <c r="G17">
-        <v>0.9113233117443232</v>
+        <v>0.6193937085820745</v>
       </c>
       <c r="I17">
-        <v>5.745599713926815</v>
+        <v>3.90507766999345</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>1.637627011529503</v>
+        <v>1.113036235190718</v>
       </c>
       <c r="C18">
-        <v>0.8427730573942195</v>
+        <v>0.5728025639038096</v>
       </c>
       <c r="D18">
-        <v>0.7155043459938493</v>
+        <v>0.486302593887841</v>
       </c>
       <c r="E18">
-        <v>0.1036515659895521</v>
+        <v>0.07044824491071539</v>
       </c>
       <c r="F18">
-        <v>0.3407835831614252</v>
+        <v>0.2316183561619044</v>
       </c>
       <c r="G18">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="I18">
-        <v>4.893409117716994</v>
+        <v>3.325874343355341</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>1.694096908478797</v>
+        <v>1.15141679502488</v>
       </c>
       <c r="C19">
-        <v>0.7179177896321129</v>
+        <v>0.4879429248069488</v>
       </c>
       <c r="D19">
-        <v>1.022149065705499</v>
+        <v>0.6947179912683442</v>
       </c>
       <c r="E19">
-        <v>0.5182578299477607</v>
+        <v>0.352241224553577</v>
       </c>
       <c r="F19">
-        <v>0.5963712705324939</v>
+        <v>0.4053321232833327</v>
       </c>
       <c r="G19">
-        <v>1.025238725712364</v>
+        <v>0.6968179221548337</v>
       </c>
       <c r="I19">
-        <v>5.574031590009026</v>
+        <v>3.788468981091916</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>2.90255270319367</v>
+        <v>1.972760775475963</v>
       </c>
       <c r="C20">
-        <v>0.4369934371673729</v>
+        <v>0.2970087368390124</v>
       </c>
       <c r="D20">
-        <v>1.533223598558248</v>
+        <v>1.042076986902516</v>
       </c>
       <c r="E20">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="F20">
-        <v>1.192742541064988</v>
+        <v>0.8106642465666654</v>
       </c>
       <c r="G20">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="I20">
-        <v>7.62953653160138</v>
+        <v>5.185521829816656</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>6.73121171635575</v>
+        <v>4.574962732232194</v>
       </c>
       <c r="C21">
-        <v>0.3745658032863197</v>
+        <v>0.254578917290582</v>
       </c>
       <c r="D21">
-        <v>3.577521729969245</v>
+        <v>2.431512969439205</v>
       </c>
       <c r="E21">
-        <v>3.938759507602981</v>
+        <v>2.677033306607186</v>
       </c>
       <c r="F21">
-        <v>2.044701498968551</v>
+        <v>1.389710136971426</v>
       </c>
       <c r="G21">
-        <v>3.303547005073173</v>
+        <v>2.24530219361002</v>
       </c>
       <c r="H21">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I21">
-        <v>20.02602978262935</v>
+        <v>13.6109728516611</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>11.98291213264002</v>
+        <v>8.144354796809322</v>
       </c>
       <c r="C22">
-        <v>1.248552677621066</v>
+        <v>0.8485963909686067</v>
       </c>
       <c r="D22">
-        <v>6.439539113944641</v>
+        <v>4.37672334499057</v>
       </c>
       <c r="E22">
-        <v>10.15785346697611</v>
+        <v>6.903928001250111</v>
       </c>
       <c r="F22">
-        <v>3.407835831614251</v>
+        <v>2.316183561619045</v>
       </c>
       <c r="G22">
-        <v>5.126193628561817</v>
+        <v>3.484089610774168</v>
       </c>
       <c r="H22">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="I22">
-        <v>38.64149945822453</v>
+        <v>26.26323868396425</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>16.59085572370235</v>
+        <v>11.276208479277</v>
       </c>
       <c r="C23">
-        <v>0.6242763388105328</v>
+        <v>0.4242981954843034</v>
       </c>
       <c r="D23">
-        <v>4.293026075963094</v>
+        <v>2.917815563327046</v>
       </c>
       <c r="E23">
-        <v>8.499428411143276</v>
+        <v>5.776756082678662</v>
       </c>
       <c r="F23">
-        <v>4.032605734076864</v>
+        <v>2.740817214582536</v>
       </c>
       <c r="G23">
-        <v>4.670531972689656</v>
+        <v>3.174392756483132</v>
       </c>
       <c r="H23">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="I23">
-        <v>39.26794947011904</v>
+        <v>26.68901424693753</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>19.41435057116702</v>
+        <v>13.19523647098514</v>
       </c>
       <c r="C24">
-        <v>0.7491316065726394</v>
+        <v>0.509157834581164</v>
       </c>
       <c r="D24">
-        <v>5.315175141668592</v>
+        <v>3.61253355459539</v>
       </c>
       <c r="E24">
-        <v>3.731456375623877</v>
+        <v>2.536136816785755</v>
       </c>
       <c r="F24">
-        <v>4.288193421447933</v>
+        <v>2.914530981703964</v>
       </c>
       <c r="G24">
-        <v>6.493178596178304</v>
+        <v>4.413180173647281</v>
       </c>
       <c r="H24">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="I24">
-        <v>40.43726588364498</v>
+        <v>27.48375659638257</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>15.6760433931238</v>
+        <v>10.65444340996356</v>
       </c>
       <c r="C25">
-        <v>1.529477030085806</v>
+        <v>1.039530578936543</v>
       </c>
       <c r="D25">
-        <v>6.95061364679739</v>
+        <v>4.724082340624741</v>
       </c>
       <c r="E25">
-        <v>2.798592281717908</v>
+        <v>1.902102612589316</v>
       </c>
       <c r="F25">
-        <v>5.480935962512922</v>
+        <v>3.725195228270629</v>
       </c>
       <c r="G25">
-        <v>7.632332735858708</v>
+        <v>5.187422309374874</v>
       </c>
       <c r="H25">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="I25">
-        <v>40.29088513558985</v>
+        <v>27.3842668618016</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>16.04874471298914</v>
+        <v>10.90775510486904</v>
       </c>
       <c r="C26">
-        <v>1.685546114788439</v>
+        <v>1.145605127807619</v>
       </c>
       <c r="D26">
-        <v>6.643968927085742</v>
+        <v>4.515666943244237</v>
       </c>
       <c r="E26">
-        <v>1.658425055832834</v>
+        <v>1.127171918571446</v>
       </c>
       <c r="F26">
-        <v>7.156455246389928</v>
+        <v>4.863985479399993</v>
       </c>
       <c r="G26">
-        <v>7.860163563794787</v>
+        <v>5.342270736520394</v>
       </c>
       <c r="H26">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="I26">
-        <v>41.61052883461413</v>
+        <v>28.28118126551758</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>15.76639522824266</v>
+        <v>10.71585230569822</v>
       </c>
       <c r="C27">
-        <v>2.028898101134232</v>
+        <v>1.378969135323986</v>
       </c>
       <c r="D27">
-        <v>5.928464581091893</v>
+        <v>4.029364349356396</v>
       </c>
       <c r="E27">
-        <v>1.347470357864177</v>
+        <v>0.9158271838393002</v>
       </c>
       <c r="F27">
-        <v>5.935314073394821</v>
+        <v>4.034019703153168</v>
       </c>
       <c r="G27">
-        <v>7.290586493954586</v>
+        <v>4.955149668656596</v>
       </c>
       <c r="H27">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="I27">
-        <v>38.79863152804231</v>
+        <v>26.37003570562203</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>16.09392063054857</v>
+        <v>10.93845955273637</v>
       </c>
       <c r="C28">
-        <v>1.560690847026332</v>
+        <v>1.060745488710758</v>
       </c>
       <c r="D28">
-        <v>5.212960235098041</v>
+        <v>3.543061755468556</v>
       </c>
       <c r="E28">
-        <v>1.96937975380149</v>
+        <v>1.338516653303593</v>
       </c>
       <c r="F28">
-        <v>5.026557851631022</v>
+        <v>3.41637075338809</v>
       </c>
       <c r="G28">
-        <v>5.354024456497898</v>
+        <v>3.638938037919688</v>
       </c>
       <c r="H28">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="I28">
-        <v>35.94192655245661</v>
+        <v>24.42843598316336</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>17.03132091990683</v>
+        <v>11.57557684598347</v>
       </c>
       <c r="C29">
-        <v>1.404621762323699</v>
+        <v>0.9546709398396825</v>
       </c>
       <c r="D29">
-        <v>7.563903086220692</v>
+        <v>5.140913135385746</v>
       </c>
       <c r="E29">
-        <v>2.591289149738803</v>
+        <v>1.761206122767884</v>
       </c>
       <c r="F29">
-        <v>5.736523649883988</v>
+        <v>3.898908995392059</v>
       </c>
       <c r="G29">
-        <v>5.240109042529858</v>
+        <v>3.561513824346929</v>
       </c>
       <c r="H29">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="I29">
-        <v>40.29216038845711</v>
+        <v>27.38513360535207</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>14.95322871217285</v>
+        <v>10.16317224408628</v>
       </c>
       <c r="C30">
-        <v>1.342194128442646</v>
+        <v>0.9122411202912521</v>
       </c>
       <c r="D30">
-        <v>7.666117992791239</v>
+        <v>5.21038493451258</v>
       </c>
       <c r="E30">
-        <v>1.658425055832834</v>
+        <v>1.127171918571446</v>
       </c>
       <c r="F30">
-        <v>5.225348275141852</v>
+        <v>3.551481461149201</v>
       </c>
       <c r="G30">
-        <v>3.07571617713709</v>
+        <v>2.090453766464501</v>
       </c>
       <c r="H30">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="I30">
-        <v>34.36681051250512</v>
+        <v>23.35788620915915</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>17.58472591000991</v>
+        <v>11.95170633235827</v>
       </c>
       <c r="C31">
-        <v>1.030055959037379</v>
+        <v>0.7000920225491005</v>
       </c>
       <c r="D31">
-        <v>5.519604954809692</v>
+        <v>3.751477152849059</v>
       </c>
       <c r="E31">
-        <v>1.554773489843281</v>
+        <v>1.056723673660731</v>
       </c>
       <c r="F31">
-        <v>5.111753747421377</v>
+        <v>3.474275342428566</v>
       </c>
       <c r="G31">
-        <v>4.784447386657696</v>
+        <v>3.251816970055891</v>
       </c>
       <c r="H31">
-        <v>0.8358378205998964</v>
+        <v>0.5680889326572781</v>
       </c>
       <c r="I31">
-        <v>36.42119926837923</v>
+        <v>24.75418042655889</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>20.09198933455852</v>
+        <v>13.65580318899508</v>
       </c>
       <c r="C32">
-        <v>1.373407945383172</v>
+        <v>0.9334560300654674</v>
       </c>
       <c r="D32">
-        <v>6.643968927085742</v>
+        <v>4.515666943244237</v>
       </c>
       <c r="E32">
-        <v>3.42050167765522</v>
+        <v>2.324792082053608</v>
       </c>
       <c r="F32">
-        <v>4.941361955840663</v>
+        <v>3.358466164347614</v>
       </c>
       <c r="G32">
-        <v>3.873124074913375</v>
+        <v>2.632423261473816</v>
       </c>
       <c r="H32">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="I32">
-        <v>40.84585660779663</v>
+        <v>27.76146102977419</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>22.0345537896142</v>
+        <v>14.97609444729029</v>
       </c>
       <c r="C33">
-        <v>1.030055959037379</v>
+        <v>0.7000920225491005</v>
       </c>
       <c r="D33">
-        <v>5.008530421956942</v>
+        <v>3.404118157214886</v>
       </c>
       <c r="E33">
-        <v>5.804487695414919</v>
+        <v>3.945101715000062</v>
       </c>
       <c r="F33">
-        <v>4.032605734076864</v>
+        <v>2.740817214582536</v>
       </c>
       <c r="G33">
-        <v>1.936562037456687</v>
+        <v>1.316211630736908</v>
       </c>
       <c r="H33">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="I33">
-        <v>40.23685328717028</v>
+        <v>27.34754335594718</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>22.99454203775219</v>
+        <v>15.62856396447105</v>
       </c>
       <c r="C34">
-        <v>0.7179177896321129</v>
+        <v>0.4879429248069488</v>
       </c>
       <c r="D34">
-        <v>5.724034767950794</v>
+        <v>3.890420751102728</v>
       </c>
       <c r="E34">
-        <v>7.462912751247754</v>
+        <v>5.072273633571509</v>
       </c>
       <c r="F34">
-        <v>2.726268665291401</v>
+        <v>1.852946849295235</v>
       </c>
       <c r="G34">
-        <v>1.025238725712364</v>
+        <v>0.6968179221548337</v>
       </c>
       <c r="H34">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="I34">
-        <v>40.92952734445325</v>
+        <v>27.81832902295474</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>16.12780256871814</v>
+        <v>10.96148788863687</v>
       </c>
       <c r="C35">
-        <v>0.6554901557510594</v>
+        <v>0.4455131052585184</v>
       </c>
       <c r="D35">
-        <v>4.701885702245293</v>
+        <v>3.195702759834383</v>
       </c>
       <c r="E35">
-        <v>5.597184563435817</v>
+        <v>3.804205225178632</v>
       </c>
       <c r="F35">
-        <v>1.590323388086651</v>
+        <v>1.080885662088887</v>
       </c>
       <c r="G35">
-        <v>1.708731209520606</v>
+        <v>1.16136320359139</v>
       </c>
       <c r="H35">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="I35">
-        <v>30.6600301946242</v>
+        <v>20.8385208221411</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>14.27558994878133</v>
+        <v>9.702605526076333</v>
       </c>
       <c r="C36">
-        <v>0.4369934371673729</v>
+        <v>0.2970087368390124</v>
       </c>
       <c r="D36">
-        <v>3.168662103687046</v>
+        <v>2.153625772931867</v>
       </c>
       <c r="E36">
-        <v>6.011790827394027</v>
+        <v>4.085998204821492</v>
       </c>
       <c r="F36">
-        <v>1.249539804925226</v>
+        <v>0.8492673059269829</v>
       </c>
       <c r="G36">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="H36">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="I36">
-        <v>27.12744956712086</v>
+        <v>18.43755270518771</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>11.41821316314709</v>
+        <v>7.760549198467694</v>
       </c>
       <c r="C37">
-        <v>0.4369934371673729</v>
+        <v>0.2970087368390124</v>
       </c>
       <c r="D37">
-        <v>3.475306823398695</v>
+        <v>2.36204117031237</v>
       </c>
       <c r="E37">
-        <v>3.316850111665667</v>
+        <v>2.254343837142892</v>
       </c>
       <c r="F37">
-        <v>1.107546645274632</v>
+        <v>0.7527596575261893</v>
       </c>
       <c r="G37">
-        <v>1.025238725712364</v>
+        <v>0.6968179221548337</v>
       </c>
       <c r="H37">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="I37">
-        <v>21.00303899185912</v>
+        <v>14.27501090448493</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>8.786715965310025</v>
+        <v>5.972015110195716</v>
       </c>
       <c r="C38">
-        <v>0.7491316065726394</v>
+        <v>0.509157834581164</v>
       </c>
       <c r="D38">
-        <v>2.044298131410997</v>
+        <v>1.389435982536688</v>
       </c>
       <c r="E38">
-        <v>1.658425055832834</v>
+        <v>1.127171918571446</v>
       </c>
       <c r="F38">
-        <v>0.8235603259734442</v>
+        <v>0.5597443607246023</v>
       </c>
       <c r="G38">
-        <v>1.025238725712364</v>
+        <v>0.6968179221548337</v>
       </c>
       <c r="H38">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I38">
-        <v>15.19881485355896</v>
+        <v>10.33008831978542</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>5.488873983471302</v>
+        <v>3.730590415880614</v>
       </c>
       <c r="C39">
-        <v>0.5930625218700062</v>
+        <v>0.4030832857100882</v>
       </c>
       <c r="D39">
-        <v>1.431008691987699</v>
+        <v>0.9726051877756821</v>
       </c>
       <c r="E39">
-        <v>0.7255609619268649</v>
+        <v>0.4931377143750078</v>
       </c>
       <c r="F39">
-        <v>0.4259794789517813</v>
+        <v>0.2895229452023806</v>
       </c>
       <c r="G39">
-        <v>0.6834924838082423</v>
+        <v>0.4645452814365559</v>
       </c>
       <c r="H39">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I39">
-        <v>9.403700643389222</v>
+        <v>6.391357425890813</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>4.167478394857841</v>
+        <v>2.832485315761207</v>
       </c>
       <c r="C40">
-        <v>1.279766494561593</v>
+        <v>0.869811300742822</v>
       </c>
       <c r="D40">
-        <v>1.124363972276049</v>
+        <v>0.7641897903951788</v>
       </c>
       <c r="E40">
-        <v>0.4146062639582084</v>
+        <v>0.2817929796428615</v>
       </c>
       <c r="F40">
-        <v>0.3975808470216627</v>
+        <v>0.2702214155222218</v>
       </c>
       <c r="G40">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="H40">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I40">
-        <v>8.748310569070451</v>
+        <v>5.945912342385615</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>2.981610558922682</v>
+        <v>2.026493559243791</v>
       </c>
       <c r="C41">
-        <v>0.967628325156326</v>
+        <v>0.6576622030006701</v>
       </c>
       <c r="D41">
-        <v>0.7155043459938493</v>
+        <v>0.486302593887841</v>
       </c>
       <c r="E41">
-        <v>0.1036515659895521</v>
+        <v>0.07044824491071539</v>
       </c>
       <c r="F41">
-        <v>0.7099657982529692</v>
+        <v>0.4825382420039675</v>
       </c>
       <c r="G41">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="H41">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I41">
-        <v>6.78715266933715</v>
+        <v>4.612983787857823</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>2.202325981022435</v>
+        <v>1.496841833532346</v>
       </c>
       <c r="C42">
-        <v>0.5618487049294794</v>
+        <v>0.381868375935873</v>
       </c>
       <c r="D42">
-        <v>1.124363972276049</v>
+        <v>0.7641897903951788</v>
       </c>
       <c r="E42">
-        <v>0.2073031319791042</v>
+        <v>0.1408964898214308</v>
       </c>
       <c r="F42">
-        <v>0.3691822150915439</v>
+        <v>0.2509198858420632</v>
       </c>
       <c r="G42">
-        <v>1.139154139680404</v>
+        <v>0.7742421357275929</v>
       </c>
       <c r="I42">
-        <v>5.604178144979016</v>
+        <v>3.808958511254484</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>1.727978846648373</v>
+        <v>1.174445130925378</v>
       </c>
       <c r="C43">
-        <v>0.4994210710484263</v>
+        <v>0.3394385563874427</v>
       </c>
       <c r="D43">
-        <v>1.124363972276049</v>
+        <v>0.7641897903951788</v>
       </c>
       <c r="E43">
-        <v>0.2073031319791042</v>
+        <v>0.1408964898214308</v>
       </c>
       <c r="F43">
-        <v>0.4543781108819002</v>
+        <v>0.3088244748825393</v>
       </c>
       <c r="G43">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="H43">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I43">
-        <v>5.663983449759743</v>
+        <v>3.849606027941085</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>2.84608280624438</v>
+        <v>1.934380215641799</v>
       </c>
       <c r="C44">
-        <v>0.4057796202268465</v>
+        <v>0.2757938270647972</v>
       </c>
       <c r="D44">
-        <v>1.226578878846598</v>
+        <v>0.833661589522013</v>
       </c>
       <c r="E44">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="F44">
-        <v>1.249539804925226</v>
+        <v>0.8492673059269829</v>
       </c>
       <c r="G44">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="I44">
-        <v>7.633751603764273</v>
+        <v>5.188386662906369</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>6.765093654525325</v>
+        <v>4.59799106813269</v>
       </c>
       <c r="C45">
-        <v>0.343351986345793</v>
+        <v>0.2333640075163669</v>
       </c>
       <c r="D45">
-        <v>1.942083224840448</v>
+        <v>1.319964183409854</v>
       </c>
       <c r="E45">
-        <v>3.316850111665667</v>
+        <v>2.254343837142892</v>
       </c>
       <c r="F45">
-        <v>2.726268665291401</v>
+        <v>1.852946849295235</v>
       </c>
       <c r="G45">
-        <v>3.417462419041212</v>
+        <v>2.32272640718278</v>
       </c>
       <c r="H45">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I45">
-        <v>18.6225551044565</v>
+        <v>12.65708154370079</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>12.36690743189521</v>
+        <v>8.405342603681632</v>
       </c>
       <c r="C46">
-        <v>0.343351986345793</v>
+        <v>0.2333640075163669</v>
       </c>
       <c r="D46">
-        <v>4.190811169392544</v>
+        <v>2.848343764200211</v>
       </c>
       <c r="E46">
-        <v>10.15785346697611</v>
+        <v>6.903928001250111</v>
       </c>
       <c r="F46">
-        <v>3.464633095474489</v>
+        <v>2.354786620979362</v>
       </c>
       <c r="G46">
-        <v>6.721009424114385</v>
+        <v>4.5680286007928</v>
       </c>
       <c r="H46">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="I46">
-        <v>37.46745665969183</v>
+        <v>25.46528398046242</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>16.88449918783868</v>
+        <v>11.47578739041465</v>
       </c>
       <c r="C47">
-        <v>0.5306348879889531</v>
+        <v>0.3606534661616579</v>
       </c>
       <c r="D47">
-        <v>5.315175141668592</v>
+        <v>3.61253355459539</v>
       </c>
       <c r="E47">
-        <v>8.084822147185069</v>
+        <v>5.4949631030358</v>
       </c>
       <c r="F47">
-        <v>3.606626255125083</v>
+        <v>2.451294269380155</v>
       </c>
       <c r="G47">
-        <v>5.467939870465939</v>
+        <v>3.716362251492447</v>
       </c>
       <c r="H47">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="I47">
-        <v>40.2797551398856</v>
+        <v>27.3767022036535</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>18.63506599326676</v>
+        <v>12.66558474527368</v>
       </c>
       <c r="C48">
-        <v>0.7803454235131659</v>
+        <v>0.5303727443553792</v>
       </c>
       <c r="D48">
-        <v>6.132894394232991</v>
+        <v>4.168307947610066</v>
       </c>
       <c r="E48">
-        <v>4.146062639582086</v>
+        <v>2.817929796428616</v>
       </c>
       <c r="F48">
-        <v>4.458585213028645</v>
+        <v>3.030340159784916</v>
       </c>
       <c r="G48">
-        <v>5.69577069840202</v>
+        <v>3.871210678637965</v>
       </c>
       <c r="H48">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="I48">
-        <v>40.35022705438561</v>
+        <v>27.42459943168498</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>15.6760433931238</v>
+        <v>10.65444340996356</v>
       </c>
       <c r="C49">
-        <v>1.529477030085806</v>
+        <v>1.039530578936543</v>
       </c>
       <c r="D49">
-        <v>6.95061364679739</v>
+        <v>4.724082340624741</v>
       </c>
       <c r="E49">
-        <v>2.798592281717908</v>
+        <v>1.902102612589316</v>
       </c>
       <c r="F49">
-        <v>5.480935962512922</v>
+        <v>3.725195228270629</v>
       </c>
       <c r="G49">
-        <v>7.632332735858708</v>
+        <v>5.187422309374874</v>
       </c>
       <c r="H49">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="I49">
-        <v>40.29088513558985</v>
+        <v>27.3842668618016</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>10.60838673816257</v>
+        <v>15.60827951678464</v>
       </c>
       <c r="C2">
-        <v>1.378969135323986</v>
+        <v>2.028898101134232</v>
       </c>
       <c r="D2">
-        <v>5.00196953713208</v>
+        <v>7.35947327307959</v>
       </c>
       <c r="E2">
-        <v>1.127171918571446</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="F2">
-        <v>4.555161004517454</v>
+        <v>6.702077135508029</v>
       </c>
       <c r="G2">
-        <v>4.49060438722004</v>
+        <v>6.607094010146345</v>
       </c>
       <c r="H2">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I2">
-        <v>27.46524348501145</v>
+        <v>40.41002726347229</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>11.03057289633836</v>
+        <v>16.22944838322687</v>
       </c>
       <c r="C3">
-        <v>1.209249857130265</v>
+        <v>1.779187565610019</v>
       </c>
       <c r="D3">
-        <v>4.585138742371072</v>
+        <v>6.746183833656289</v>
       </c>
       <c r="E3">
-        <v>1.127171918571446</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="F3">
-        <v>3.570782990829359</v>
+        <v>5.253746907071971</v>
       </c>
       <c r="G3">
-        <v>3.871210678637965</v>
+        <v>5.69577069840202</v>
       </c>
       <c r="H3">
-        <v>0.4165985506153373</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="I3">
-        <v>25.81072563449381</v>
+        <v>37.9757101789066</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>11.6293096297513</v>
+        <v>17.11037877563584</v>
       </c>
       <c r="C4">
-        <v>1.294109496227125</v>
+        <v>1.904042833372125</v>
       </c>
       <c r="D4">
-        <v>4.515666943244237</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="E4">
-        <v>1.056723673660731</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="F4">
-        <v>4.034019703153168</v>
+        <v>5.935314073394821</v>
       </c>
       <c r="G4">
-        <v>3.484089610774168</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="H4">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I4">
-        <v>26.39264501191558</v>
+        <v>38.83189694162689</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>11.56790073401664</v>
+        <v>17.02002694051697</v>
       </c>
       <c r="C5">
-        <v>0.9546709398396825</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="D5">
-        <v>4.168307947610066</v>
+        <v>6.132894394232991</v>
       </c>
       <c r="E5">
-        <v>1.056723673660731</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="F5">
-        <v>4.072622762513486</v>
+        <v>5.99211133725506</v>
       </c>
       <c r="G5">
-        <v>2.632423261473816</v>
+        <v>3.873124074913375</v>
       </c>
       <c r="H5">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I5">
-        <v>24.7556300831983</v>
+        <v>36.42333217007199</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>11.95938244432509</v>
+        <v>17.59601988939978</v>
       </c>
       <c r="C6">
-        <v>1.145605127807619</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="D6">
-        <v>4.932497738005243</v>
+        <v>7.257258366509039</v>
       </c>
       <c r="E6">
-        <v>1.338516653303593</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="F6">
-        <v>3.493576872108725</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="G6">
-        <v>2.787271688619335</v>
+        <v>4.100954902849455</v>
       </c>
       <c r="H6">
-        <v>0.2272355730629113</v>
+        <v>0.3343351282399586</v>
       </c>
       <c r="I6">
-        <v>25.88408609723252</v>
+        <v>38.08364653493965</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>12.20501802726374</v>
+        <v>17.95742722987526</v>
       </c>
       <c r="C7">
-        <v>0.9971007593881129</v>
+        <v>1.467049396204752</v>
       </c>
       <c r="D7">
-        <v>5.140913135385746</v>
+        <v>7.563903086220692</v>
       </c>
       <c r="E7">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F7">
-        <v>3.068943219145233</v>
+        <v>4.515382476888883</v>
       </c>
       <c r="G7">
-        <v>2.24530219361002</v>
+        <v>3.303547005073173</v>
       </c>
       <c r="H7">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I7">
-        <v>25.41768948482204</v>
+        <v>37.39743015992794</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>13.37178704622228</v>
+        <v>19.67411209713375</v>
       </c>
       <c r="C8">
-        <v>1.103175308259189</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="D8">
-        <v>4.86302593887841</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="E8">
-        <v>2.395240326964322</v>
+        <v>3.524153243644772</v>
       </c>
       <c r="F8">
-        <v>3.339164634667456</v>
+        <v>4.912963323910546</v>
       </c>
       <c r="G8">
-        <v>1.471060057882427</v>
+        <v>2.164392865392768</v>
       </c>
       <c r="H8">
-        <v>0.4165985506153373</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="I8">
-        <v>26.96005186348942</v>
+        <v>39.6667312060343</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>14.75348720025214</v>
+        <v>21.70702838730831</v>
       </c>
       <c r="C9">
-        <v>0.9334560300654674</v>
+        <v>1.373407945383172</v>
       </c>
       <c r="D9">
-        <v>4.654610541497908</v>
+        <v>6.84839874022684</v>
       </c>
       <c r="E9">
-        <v>4.367791184464354</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="F9">
-        <v>3.12684780818571</v>
+        <v>4.60057837267924</v>
       </c>
       <c r="G9">
-        <v>1.471060057882427</v>
+        <v>2.164392865392768</v>
       </c>
       <c r="H9">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I9">
-        <v>29.5723609909214</v>
+        <v>43.51026105195584</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>14.1777788027397</v>
+        <v>20.85997993306891</v>
       </c>
       <c r="C10">
-        <v>1.060745488710758</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="D10">
-        <v>5.766159327527258</v>
+        <v>8.483837245355639</v>
       </c>
       <c r="E10">
-        <v>5.283618368303653</v>
+        <v>7.77386744921641</v>
       </c>
       <c r="F10">
-        <v>1.679233082173807</v>
+        <v>2.470680977920332</v>
       </c>
       <c r="G10">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H10">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I10">
-        <v>29.16509184600526</v>
+        <v>42.91103981226016</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>10.25528558768827</v>
+        <v>15.08875646485115</v>
       </c>
       <c r="C11">
-        <v>0.869811300742822</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="D11">
-        <v>4.09883614848323</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="E11">
-        <v>4.226894694642924</v>
+        <v>6.219093959373126</v>
       </c>
       <c r="F11">
-        <v>0.8685688356071416</v>
+        <v>1.277938436855344</v>
       </c>
       <c r="G11">
-        <v>0.9290905628731118</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="H11">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I11">
-        <v>21.36210491656896</v>
+        <v>31.43038737504012</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>8.574217066951942</v>
+        <v>12.6153749784721</v>
       </c>
       <c r="C12">
-        <v>0.9546709398396825</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="D12">
-        <v>3.61253355459539</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="E12">
-        <v>3.311067510803624</v>
+        <v>4.871623601508951</v>
       </c>
       <c r="F12">
-        <v>0.7720611872063481</v>
+        <v>1.135945277204751</v>
       </c>
       <c r="G12">
-        <v>1.16136320359139</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="H12">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I12">
-        <v>18.53740384503032</v>
+        <v>27.274362056192</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>7.077375233419597</v>
+        <v>10.41304899744967</v>
       </c>
       <c r="C13">
-        <v>0.6364472932264552</v>
+        <v>0.9364145082157992</v>
       </c>
       <c r="D13">
-        <v>2.917815563327046</v>
+        <v>4.293026075963094</v>
       </c>
       <c r="E13">
-        <v>2.465688571875039</v>
+        <v>3.627804809634324</v>
       </c>
       <c r="F13">
-        <v>0.386030593603174</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="G13">
-        <v>0.5419694950093152</v>
+        <v>0.7974078977762828</v>
       </c>
       <c r="H13">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I13">
-        <v>14.1010719414816</v>
+        <v>20.74711997038819</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>5.419335048583776</v>
+        <v>7.973549449240199</v>
       </c>
       <c r="C14">
-        <v>0.5728025639038096</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="D14">
-        <v>1.528379580790358</v>
+        <v>2.248727944552097</v>
       </c>
       <c r="E14">
-        <v>1.127171918571446</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="F14">
-        <v>0.4825382420039675</v>
+        <v>0.7099657982529692</v>
       </c>
       <c r="G14">
-        <v>0.3871210678637965</v>
+        <v>0.5695770698402021</v>
       </c>
       <c r="H14">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I14">
-        <v>9.630966208248608</v>
+        <v>14.1701859392325</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>3.185586466235504</v>
+        <v>4.687001446791336</v>
       </c>
       <c r="C15">
-        <v>0.254578917290582</v>
+        <v>0.3745658032863197</v>
       </c>
       <c r="D15">
-        <v>0.833661589522013</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="E15">
-        <v>0.704482449107154</v>
+        <v>1.036515659895521</v>
       </c>
       <c r="F15">
-        <v>0.386030593603174</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="G15">
-        <v>0.5419694950093152</v>
+        <v>0.7974078977762828</v>
       </c>
       <c r="H15">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I15">
-        <v>5.944182106278229</v>
+        <v>8.74576484657176</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>2.563821396922068</v>
+        <v>3.772189116212788</v>
       </c>
       <c r="C16">
-        <v>0.4879429248069488</v>
+        <v>0.7179177896321129</v>
       </c>
       <c r="D16">
-        <v>0.9726051877756821</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="E16">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F16">
-        <v>0.2123168264817457</v>
+        <v>0.3123849512313064</v>
       </c>
       <c r="G16">
-        <v>0.6193937085820745</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="H16">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I16">
-        <v>5.10529737481115</v>
+        <v>7.511501080150212</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>1.627335736968498</v>
+        <v>2.394323630650032</v>
       </c>
       <c r="C17">
-        <v>0.6576622030006701</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="D17">
-        <v>0.486302593887841</v>
+        <v>0.7155043459938493</v>
       </c>
       <c r="E17">
-        <v>0.07044824491071539</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="F17">
-        <v>0.4439351826436502</v>
+        <v>0.6531685343927315</v>
       </c>
       <c r="G17">
-        <v>0.6193937085820745</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="I17">
-        <v>3.90507766999345</v>
+        <v>5.745599713926815</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>1.113036235190718</v>
+        <v>1.637627011529503</v>
       </c>
       <c r="C18">
-        <v>0.5728025639038096</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="D18">
-        <v>0.486302593887841</v>
+        <v>0.7155043459938493</v>
       </c>
       <c r="E18">
-        <v>0.07044824491071539</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="F18">
-        <v>0.2316183561619044</v>
+        <v>0.3407835831614252</v>
       </c>
       <c r="G18">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="I18">
-        <v>3.325874343355341</v>
+        <v>4.893409117716994</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>1.15141679502488</v>
+        <v>1.694096908478797</v>
       </c>
       <c r="C19">
-        <v>0.4879429248069488</v>
+        <v>0.7179177896321129</v>
       </c>
       <c r="D19">
-        <v>0.6947179912683442</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="E19">
-        <v>0.352241224553577</v>
+        <v>0.5182578299477607</v>
       </c>
       <c r="F19">
-        <v>0.4053321232833327</v>
+        <v>0.5963712705324939</v>
       </c>
       <c r="G19">
-        <v>0.6968179221548337</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="I19">
-        <v>3.788468981091916</v>
+        <v>5.574031590009026</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>1.972760775475963</v>
+        <v>2.90255270319367</v>
       </c>
       <c r="C20">
-        <v>0.2970087368390124</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="D20">
-        <v>1.042076986902516</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="E20">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F20">
-        <v>0.8106642465666654</v>
+        <v>1.192742541064988</v>
       </c>
       <c r="G20">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="I20">
-        <v>5.185521829816656</v>
+        <v>7.62953653160138</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>4.574962732232194</v>
+        <v>6.73121171635575</v>
       </c>
       <c r="C21">
-        <v>0.254578917290582</v>
+        <v>0.3745658032863197</v>
       </c>
       <c r="D21">
-        <v>2.431512969439205</v>
+        <v>3.577521729969245</v>
       </c>
       <c r="E21">
-        <v>2.677033306607186</v>
+        <v>3.938759507602981</v>
       </c>
       <c r="F21">
-        <v>1.389710136971426</v>
+        <v>2.044701498968551</v>
       </c>
       <c r="G21">
-        <v>2.24530219361002</v>
+        <v>3.303547005073173</v>
       </c>
       <c r="H21">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I21">
-        <v>13.6109728516611</v>
+        <v>20.02602978262935</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>8.144354796809322</v>
+        <v>11.98291213264002</v>
       </c>
       <c r="C22">
-        <v>0.8485963909686067</v>
+        <v>1.248552677621066</v>
       </c>
       <c r="D22">
-        <v>4.37672334499057</v>
+        <v>6.439539113944641</v>
       </c>
       <c r="E22">
-        <v>6.903928001250111</v>
+        <v>10.15785346697611</v>
       </c>
       <c r="F22">
-        <v>2.316183561619045</v>
+        <v>3.407835831614251</v>
       </c>
       <c r="G22">
-        <v>3.484089610774168</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="H22">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I22">
-        <v>26.26323868396425</v>
+        <v>38.64149945822453</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>11.276208479277</v>
+        <v>16.59085572370235</v>
       </c>
       <c r="C23">
-        <v>0.4242981954843034</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="D23">
-        <v>2.917815563327046</v>
+        <v>4.293026075963094</v>
       </c>
       <c r="E23">
-        <v>5.776756082678662</v>
+        <v>8.499428411143276</v>
       </c>
       <c r="F23">
-        <v>2.740817214582536</v>
+        <v>4.032605734076864</v>
       </c>
       <c r="G23">
-        <v>3.174392756483132</v>
+        <v>4.670531972689656</v>
       </c>
       <c r="H23">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I23">
-        <v>26.68901424693753</v>
+        <v>39.26794947011904</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>13.19523647098514</v>
+        <v>19.41435057116702</v>
       </c>
       <c r="C24">
-        <v>0.509157834581164</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="D24">
-        <v>3.61253355459539</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="E24">
-        <v>2.536136816785755</v>
+        <v>3.731456375623877</v>
       </c>
       <c r="F24">
-        <v>2.914530981703964</v>
+        <v>4.288193421447933</v>
       </c>
       <c r="G24">
-        <v>4.413180173647281</v>
+        <v>6.493178596178304</v>
       </c>
       <c r="H24">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I24">
-        <v>27.48375659638257</v>
+        <v>40.43726588364498</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>10.65444340996356</v>
+        <v>15.6760433931238</v>
       </c>
       <c r="C25">
-        <v>1.039530578936543</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="D25">
-        <v>4.724082340624741</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="E25">
-        <v>1.902102612589316</v>
+        <v>2.798592281717908</v>
       </c>
       <c r="F25">
-        <v>3.725195228270629</v>
+        <v>5.480935962512922</v>
       </c>
       <c r="G25">
-        <v>5.187422309374874</v>
+        <v>7.632332735858708</v>
       </c>
       <c r="H25">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I25">
-        <v>27.3842668618016</v>
+        <v>40.29088513558985</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>10.90775510486904</v>
+        <v>16.04874471298914</v>
       </c>
       <c r="C26">
-        <v>1.145605127807619</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="D26">
-        <v>4.515666943244237</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="E26">
-        <v>1.127171918571446</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="F26">
-        <v>4.863985479399993</v>
+        <v>7.156455246389928</v>
       </c>
       <c r="G26">
-        <v>5.342270736520394</v>
+        <v>7.860163563794787</v>
       </c>
       <c r="H26">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I26">
-        <v>28.28118126551758</v>
+        <v>41.61052883461413</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>10.71585230569822</v>
+        <v>15.76639522824266</v>
       </c>
       <c r="C27">
-        <v>1.378969135323986</v>
+        <v>2.028898101134232</v>
       </c>
       <c r="D27">
-        <v>4.029364349356396</v>
+        <v>5.928464581091893</v>
       </c>
       <c r="E27">
-        <v>0.9158271838393002</v>
+        <v>1.347470357864177</v>
       </c>
       <c r="F27">
-        <v>4.034019703153168</v>
+        <v>5.935314073394821</v>
       </c>
       <c r="G27">
-        <v>4.955149668656596</v>
+        <v>7.290586493954586</v>
       </c>
       <c r="H27">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I27">
-        <v>26.37003570562203</v>
+        <v>38.79863152804231</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>10.93845955273637</v>
+        <v>16.09392063054857</v>
       </c>
       <c r="C28">
-        <v>1.060745488710758</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="D28">
-        <v>3.543061755468556</v>
+        <v>5.212960235098041</v>
       </c>
       <c r="E28">
-        <v>1.338516653303593</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="F28">
-        <v>3.41637075338809</v>
+        <v>5.026557851631022</v>
       </c>
       <c r="G28">
-        <v>3.638938037919688</v>
+        <v>5.354024456497898</v>
       </c>
       <c r="H28">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I28">
-        <v>24.42843598316336</v>
+        <v>35.94192655245661</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>11.57557684598347</v>
+        <v>17.03132091990683</v>
       </c>
       <c r="C29">
-        <v>0.9546709398396825</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="D29">
-        <v>5.140913135385746</v>
+        <v>7.563903086220692</v>
       </c>
       <c r="E29">
-        <v>1.761206122767884</v>
+        <v>2.591289149738803</v>
       </c>
       <c r="F29">
-        <v>3.898908995392059</v>
+        <v>5.736523649883988</v>
       </c>
       <c r="G29">
-        <v>3.561513824346929</v>
+        <v>5.240109042529858</v>
       </c>
       <c r="H29">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I29">
-        <v>27.38513360535207</v>
+        <v>40.29216038845711</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>10.16317224408628</v>
+        <v>14.95322871217285</v>
       </c>
       <c r="C30">
-        <v>0.9122411202912521</v>
+        <v>1.342194128442646</v>
       </c>
       <c r="D30">
-        <v>5.21038493451258</v>
+        <v>7.666117992791239</v>
       </c>
       <c r="E30">
-        <v>1.127171918571446</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="F30">
-        <v>3.551481461149201</v>
+        <v>5.225348275141852</v>
       </c>
       <c r="G30">
-        <v>2.090453766464501</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="H30">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I30">
-        <v>23.35788620915915</v>
+        <v>34.36681051250512</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>11.95170633235827</v>
+        <v>17.58472591000991</v>
       </c>
       <c r="C31">
-        <v>0.7000920225491005</v>
+        <v>1.030055959037379</v>
       </c>
       <c r="D31">
-        <v>3.751477152849059</v>
+        <v>5.519604954809692</v>
       </c>
       <c r="E31">
-        <v>1.056723673660731</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="F31">
-        <v>3.474275342428566</v>
+        <v>5.111753747421377</v>
       </c>
       <c r="G31">
-        <v>3.251816970055891</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="H31">
-        <v>0.5680889326572781</v>
+        <v>0.8358378205998964</v>
       </c>
       <c r="I31">
-        <v>24.75418042655889</v>
+        <v>36.42119926837923</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>13.65580318899508</v>
+        <v>20.09198933455852</v>
       </c>
       <c r="C32">
-        <v>0.9334560300654674</v>
+        <v>1.373407945383172</v>
       </c>
       <c r="D32">
-        <v>4.515666943244237</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="E32">
-        <v>2.324792082053608</v>
+        <v>3.42050167765522</v>
       </c>
       <c r="F32">
-        <v>3.358466164347614</v>
+        <v>4.941361955840663</v>
       </c>
       <c r="G32">
-        <v>2.632423261473816</v>
+        <v>3.873124074913375</v>
       </c>
       <c r="H32">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I32">
-        <v>27.76146102977419</v>
+        <v>40.84585660779663</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>14.97609444729029</v>
+        <v>22.0345537896142</v>
       </c>
       <c r="C33">
-        <v>0.7000920225491005</v>
+        <v>1.030055959037379</v>
       </c>
       <c r="D33">
-        <v>3.404118157214886</v>
+        <v>5.008530421956942</v>
       </c>
       <c r="E33">
-        <v>3.945101715000062</v>
+        <v>5.804487695414919</v>
       </c>
       <c r="F33">
-        <v>2.740817214582536</v>
+        <v>4.032605734076864</v>
       </c>
       <c r="G33">
-        <v>1.316211630736908</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="H33">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I33">
-        <v>27.34754335594718</v>
+        <v>40.23685328717028</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>15.62856396447105</v>
+        <v>22.99454203775219</v>
       </c>
       <c r="C34">
-        <v>0.4879429248069488</v>
+        <v>0.7179177896321129</v>
       </c>
       <c r="D34">
-        <v>3.890420751102728</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="E34">
-        <v>5.072273633571509</v>
+        <v>7.462912751247754</v>
       </c>
       <c r="F34">
-        <v>1.852946849295235</v>
+        <v>2.726268665291401</v>
       </c>
       <c r="G34">
-        <v>0.6968179221548337</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="H34">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I34">
-        <v>27.81832902295474</v>
+        <v>40.92952734445325</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>10.96148788863687</v>
+        <v>16.12780256871814</v>
       </c>
       <c r="C35">
-        <v>0.4455131052585184</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="D35">
-        <v>3.195702759834383</v>
+        <v>4.701885702245293</v>
       </c>
       <c r="E35">
-        <v>3.804205225178632</v>
+        <v>5.597184563435817</v>
       </c>
       <c r="F35">
-        <v>1.080885662088887</v>
+        <v>1.590323388086651</v>
       </c>
       <c r="G35">
-        <v>1.16136320359139</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="H35">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I35">
-        <v>20.8385208221411</v>
+        <v>30.6600301946242</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>9.702605526076333</v>
+        <v>14.27558994878133</v>
       </c>
       <c r="C36">
-        <v>0.2970087368390124</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="D36">
-        <v>2.153625772931867</v>
+        <v>3.168662103687046</v>
       </c>
       <c r="E36">
-        <v>4.085998204821492</v>
+        <v>6.011790827394027</v>
       </c>
       <c r="F36">
-        <v>0.8492673059269829</v>
+        <v>1.249539804925226</v>
       </c>
       <c r="G36">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H36">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I36">
-        <v>18.43755270518771</v>
+        <v>27.12744956712086</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>7.760549198467694</v>
+        <v>11.41821316314709</v>
       </c>
       <c r="C37">
-        <v>0.2970087368390124</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="D37">
-        <v>2.36204117031237</v>
+        <v>3.475306823398695</v>
       </c>
       <c r="E37">
-        <v>2.254343837142892</v>
+        <v>3.316850111665667</v>
       </c>
       <c r="F37">
-        <v>0.7527596575261893</v>
+        <v>1.107546645274632</v>
       </c>
       <c r="G37">
-        <v>0.6968179221548337</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="H37">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I37">
-        <v>14.27501090448493</v>
+        <v>21.00303899185912</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>5.972015110195716</v>
+        <v>8.786715965310025</v>
       </c>
       <c r="C38">
-        <v>0.509157834581164</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="D38">
-        <v>1.389435982536688</v>
+        <v>2.044298131410997</v>
       </c>
       <c r="E38">
-        <v>1.127171918571446</v>
+        <v>1.658425055832834</v>
       </c>
       <c r="F38">
-        <v>0.5597443607246023</v>
+        <v>0.8235603259734442</v>
       </c>
       <c r="G38">
-        <v>0.6968179221548337</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="H38">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I38">
-        <v>10.33008831978542</v>
+        <v>15.19881485355896</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>3.730590415880614</v>
+        <v>5.488873983471302</v>
       </c>
       <c r="C39">
-        <v>0.4030832857100882</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="D39">
-        <v>0.9726051877756821</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="E39">
-        <v>0.4931377143750078</v>
+        <v>0.7255609619268649</v>
       </c>
       <c r="F39">
-        <v>0.2895229452023806</v>
+        <v>0.4259794789517813</v>
       </c>
       <c r="G39">
-        <v>0.4645452814365559</v>
+        <v>0.6834924838082423</v>
       </c>
       <c r="H39">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I39">
-        <v>6.391357425890813</v>
+        <v>9.403700643389222</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>2.832485315761207</v>
+        <v>4.167478394857841</v>
       </c>
       <c r="C40">
-        <v>0.869811300742822</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="D40">
-        <v>0.7641897903951788</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="E40">
-        <v>0.2817929796428615</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="F40">
-        <v>0.2702214155222218</v>
+        <v>0.3975808470216627</v>
       </c>
       <c r="G40">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="H40">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I40">
-        <v>5.945912342385615</v>
+        <v>8.748310569070451</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>2.026493559243791</v>
+        <v>2.981610558922682</v>
       </c>
       <c r="C41">
-        <v>0.6576622030006701</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="D41">
-        <v>0.486302593887841</v>
+        <v>0.7155043459938493</v>
       </c>
       <c r="E41">
-        <v>0.07044824491071539</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="F41">
-        <v>0.4825382420039675</v>
+        <v>0.7099657982529692</v>
       </c>
       <c r="G41">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="H41">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I41">
-        <v>4.612983787857823</v>
+        <v>6.78715266933715</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>1.496841833532346</v>
+        <v>2.202325981022435</v>
       </c>
       <c r="C42">
-        <v>0.381868375935873</v>
+        <v>0.5618487049294794</v>
       </c>
       <c r="D42">
-        <v>0.7641897903951788</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="E42">
-        <v>0.1408964898214308</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="F42">
-        <v>0.2509198858420632</v>
+        <v>0.3691822150915439</v>
       </c>
       <c r="G42">
-        <v>0.7742421357275929</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="I42">
-        <v>3.808958511254484</v>
+        <v>5.604178144979016</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>1.174445130925378</v>
+        <v>1.727978846648373</v>
       </c>
       <c r="C43">
-        <v>0.3394385563874427</v>
+        <v>0.4994210710484263</v>
       </c>
       <c r="D43">
-        <v>0.7641897903951788</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="E43">
-        <v>0.1408964898214308</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="F43">
-        <v>0.3088244748825393</v>
+        <v>0.4543781108819002</v>
       </c>
       <c r="G43">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H43">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I43">
-        <v>3.849606027941085</v>
+        <v>5.663983449759743</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>1.934380215641799</v>
+        <v>2.84608280624438</v>
       </c>
       <c r="C44">
-        <v>0.2757938270647972</v>
+        <v>0.4057796202268465</v>
       </c>
       <c r="D44">
-        <v>0.833661589522013</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="E44">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F44">
-        <v>0.8492673059269829</v>
+        <v>1.249539804925226</v>
       </c>
       <c r="G44">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="I44">
-        <v>5.188386662906369</v>
+        <v>7.633751603764273</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>4.59799106813269</v>
+        <v>6.765093654525325</v>
       </c>
       <c r="C45">
-        <v>0.2333640075163669</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="D45">
-        <v>1.319964183409854</v>
+        <v>1.942083224840448</v>
       </c>
       <c r="E45">
-        <v>2.254343837142892</v>
+        <v>3.316850111665667</v>
       </c>
       <c r="F45">
-        <v>1.852946849295235</v>
+        <v>2.726268665291401</v>
       </c>
       <c r="G45">
-        <v>2.32272640718278</v>
+        <v>3.417462419041212</v>
       </c>
       <c r="H45">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I45">
-        <v>12.65708154370079</v>
+        <v>18.6225551044565</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>8.405342603681632</v>
+        <v>12.36690743189521</v>
       </c>
       <c r="C46">
-        <v>0.2333640075163669</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="D46">
-        <v>2.848343764200211</v>
+        <v>4.190811169392544</v>
       </c>
       <c r="E46">
-        <v>6.903928001250111</v>
+        <v>10.15785346697611</v>
       </c>
       <c r="F46">
-        <v>2.354786620979362</v>
+        <v>3.464633095474489</v>
       </c>
       <c r="G46">
-        <v>4.5680286007928</v>
+        <v>6.721009424114385</v>
       </c>
       <c r="H46">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I46">
-        <v>25.46528398046242</v>
+        <v>37.46745665969183</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>11.47578739041465</v>
+        <v>16.88449918783868</v>
       </c>
       <c r="C47">
-        <v>0.3606534661616579</v>
+        <v>0.5306348879889531</v>
       </c>
       <c r="D47">
-        <v>3.61253355459539</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="E47">
-        <v>5.4949631030358</v>
+        <v>8.084822147185069</v>
       </c>
       <c r="F47">
-        <v>2.451294269380155</v>
+        <v>3.606626255125083</v>
       </c>
       <c r="G47">
-        <v>3.716362251492447</v>
+        <v>5.467939870465939</v>
       </c>
       <c r="H47">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I47">
-        <v>27.3767022036535</v>
+        <v>40.2797551398856</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>12.66558474527368</v>
+        <v>18.63506599326676</v>
       </c>
       <c r="C48">
-        <v>0.5303727443553792</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="D48">
-        <v>4.168307947610066</v>
+        <v>6.132894394232991</v>
       </c>
       <c r="E48">
-        <v>2.817929796428616</v>
+        <v>4.146062639582086</v>
       </c>
       <c r="F48">
-        <v>3.030340159784916</v>
+        <v>4.458585213028645</v>
       </c>
       <c r="G48">
-        <v>3.871210678637965</v>
+        <v>5.69577069840202</v>
       </c>
       <c r="H48">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I48">
-        <v>27.42459943168498</v>
+        <v>40.35022705438561</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>10.65444340996356</v>
+        <v>15.6760433931238</v>
       </c>
       <c r="C49">
-        <v>1.039530578936543</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="D49">
-        <v>4.724082340624741</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="E49">
-        <v>1.902102612589316</v>
+        <v>2.798592281717908</v>
       </c>
       <c r="F49">
-        <v>3.725195228270629</v>
+        <v>5.480935962512922</v>
       </c>
       <c r="G49">
-        <v>5.187422309374874</v>
+        <v>7.632332735858708</v>
       </c>
       <c r="H49">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I49">
-        <v>27.3842668618016</v>
+        <v>40.29088513558985</v>
       </c>
     </row>
   </sheetData>
